--- a/game/resultspace/FlexOil/МЭР FlexOil сырой.xlsx
+++ b/game/resultspace/FlexOil/МЭР FlexOil сырой.xlsx
@@ -570,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN31"/>
+  <dimension ref="A1:BN35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43833</v>
+        <v>43835</v>
       </c>
       <c r="C3">
         <v>-0</v>
@@ -990,7 +990,7 @@
         <v>-0</v>
       </c>
       <c r="F3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>-0</v>
@@ -1002,7 +1002,7 @@
         <v>-0</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>-0</v>
@@ -1014,7 +1014,7 @@
         <v>-0</v>
       </c>
       <c r="N3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>-0</v>
@@ -1026,7 +1026,7 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>-0</v>
@@ -1038,7 +1038,7 @@
         <v>-0</v>
       </c>
       <c r="V3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>-0</v>
@@ -1050,88 +1050,88 @@
         <v>-0</v>
       </c>
       <c r="Z3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AC3">
-        <v>45239.43359375</v>
+        <v>-0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>59.99979400634766</v>
+        <v>-0</v>
       </c>
       <c r="AF3">
-        <v>59.99979400634766</v>
+        <v>-0</v>
       </c>
       <c r="AG3">
-        <v>13569.9541015625</v>
+        <v>-0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AK3">
-        <v>45239.43359375</v>
+        <v>-0</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AN3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AO3">
-        <v>45239.43359375</v>
+        <v>-0</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS3">
-        <v>45239.43359375</v>
+        <v>-0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>159.99853515625</v>
+        <v>-0</v>
       </c>
       <c r="AV3">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AW3">
-        <v>36191.21484375</v>
+        <v>-0</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>159.9997863769531</v>
+        <v>-0</v>
       </c>
       <c r="AZ3">
-        <v>159.9997863769531</v>
+        <v>-0</v>
       </c>
       <c r="BA3">
-        <v>36191.3515625</v>
+        <v>-0</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43833.41077546297</v>
+        <v>43844</v>
       </c>
       <c r="C4">
         <v>-0</v>
@@ -1190,7 +1190,7 @@
         <v>-0</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>-0</v>
@@ -1202,7 +1202,7 @@
         <v>-0</v>
       </c>
       <c r="J4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>-0</v>
@@ -1214,7 +1214,7 @@
         <v>-0</v>
       </c>
       <c r="N4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>-0</v>
@@ -1226,7 +1226,7 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>-0</v>
@@ -1238,7 +1238,7 @@
         <v>-0</v>
       </c>
       <c r="V4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>-0</v>
@@ -1250,88 +1250,88 @@
         <v>-0</v>
       </c>
       <c r="Z4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AC4">
-        <v>45239.41796875</v>
+        <v>-0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>70</v>
+        <v>-0</v>
       </c>
       <c r="AF4">
-        <v>70</v>
+        <v>-0</v>
       </c>
       <c r="AG4">
-        <v>15853.4873046875</v>
+        <v>-0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AK4">
-        <v>45239.453125</v>
+        <v>-0</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AN4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AO4">
-        <v>45239.7421875</v>
+        <v>-0</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS4">
-        <v>45239.44921875</v>
+        <v>-0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>159.9985046386719</v>
+        <v>-0</v>
       </c>
       <c r="AV4">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AW4">
-        <v>36191.19140625</v>
+        <v>-0</v>
       </c>
       <c r="AX4">
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AZ4">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BA4">
-        <v>36196.51171875</v>
+        <v>-0</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43834</v>
+        <v>43871</v>
       </c>
       <c r="C5">
         <v>-0</v>
@@ -1390,7 +1390,7 @@
         <v>-0</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>-0</v>
@@ -1402,7 +1402,7 @@
         <v>-0</v>
       </c>
       <c r="J5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>-0</v>
@@ -1414,7 +1414,7 @@
         <v>-0</v>
       </c>
       <c r="N5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>-0</v>
@@ -1426,7 +1426,7 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>-0</v>
@@ -1438,7 +1438,7 @@
         <v>-0</v>
       </c>
       <c r="V5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>-0</v>
@@ -1450,88 +1450,88 @@
         <v>-0</v>
       </c>
       <c r="Z5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AC5">
-        <v>45239.421875</v>
+        <v>-0</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>70</v>
+        <v>-0</v>
       </c>
       <c r="AF5">
-        <v>70</v>
+        <v>-0</v>
       </c>
       <c r="AG5">
-        <v>15852.0966796875</v>
+        <v>-0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AK5">
-        <v>45239.453125</v>
+        <v>-0</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AN5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AO5">
-        <v>45239.734375</v>
+        <v>-0</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS5">
-        <v>45239.44921875</v>
+        <v>-0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>159.9984436035156</v>
+        <v>-0</v>
       </c>
       <c r="AV5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AW5">
-        <v>36191.17578125</v>
+        <v>-0</v>
       </c>
       <c r="AX5">
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AZ5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BA5">
-        <v>36196.4296875</v>
+        <v>-0</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43835</v>
+        <v>43927</v>
       </c>
       <c r="C6">
         <v>-0</v>
@@ -1590,7 +1590,7 @@
         <v>-0</v>
       </c>
       <c r="F6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>-0</v>
@@ -1602,7 +1602,7 @@
         <v>-0</v>
       </c>
       <c r="J6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>-0</v>
@@ -1614,7 +1614,7 @@
         <v>-0</v>
       </c>
       <c r="N6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>-0</v>
@@ -1626,7 +1626,7 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>-0</v>
@@ -1638,7 +1638,7 @@
         <v>-0</v>
       </c>
       <c r="V6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>-0</v>
@@ -1650,88 +1650,88 @@
         <v>-0</v>
       </c>
       <c r="Z6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>193.7852478027344</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>193.7852478027344</v>
+        <v>-0</v>
       </c>
       <c r="AC6">
-        <v>43833.6640625</v>
+        <v>-0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>75</v>
+        <v>-0</v>
       </c>
       <c r="AF6">
-        <v>75</v>
+        <v>-0</v>
       </c>
       <c r="AG6">
-        <v>16981.97265625</v>
+        <v>-0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AK6">
-        <v>45239.453125</v>
+        <v>-0</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AN6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AO6">
-        <v>45239.72265625</v>
+        <v>-0</v>
       </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS6">
-        <v>45239.4453125</v>
+        <v>-0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>159.9984130859375</v>
+        <v>-0</v>
       </c>
       <c r="AV6">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AW6">
-        <v>36191.16796875</v>
+        <v>-0</v>
       </c>
       <c r="AX6">
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AZ6">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BA6">
-        <v>36196.26171875</v>
+        <v>-0</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43836</v>
+        <v>43983</v>
       </c>
       <c r="C7">
         <v>-0</v>
@@ -1790,7 +1790,7 @@
         <v>-0</v>
       </c>
       <c r="F7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>-0</v>
@@ -1802,7 +1802,7 @@
         <v>-0</v>
       </c>
       <c r="J7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>-0</v>
@@ -1814,7 +1814,7 @@
         <v>-0</v>
       </c>
       <c r="N7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>-0</v>
@@ -1826,7 +1826,7 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>371.9776916503906</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>-0</v>
@@ -1838,7 +1838,7 @@
         <v>-0</v>
       </c>
       <c r="V7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>-0</v>
@@ -1850,88 +1850,88 @@
         <v>-0</v>
       </c>
       <c r="Z7">
-        <v>378.5968017578125</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>178.1334686279297</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>178.1334686279297</v>
+        <v>-0</v>
       </c>
       <c r="AC7">
-        <v>40293.27734375</v>
+        <v>-0</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>80.09777069091797</v>
+        <v>-0</v>
       </c>
       <c r="AF7">
-        <v>80.09777069091797</v>
+        <v>-0</v>
       </c>
       <c r="AG7">
-        <v>18133.798828125</v>
+        <v>-0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AK7">
-        <v>45239.453125</v>
+        <v>-0</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AN7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AO7">
-        <v>45239.70703125</v>
+        <v>-0</v>
       </c>
       <c r="AP7">
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS7">
-        <v>45239.4453125</v>
+        <v>-0</v>
       </c>
       <c r="AT7">
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>159.9983673095703</v>
+        <v>-0</v>
       </c>
       <c r="AV7">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AW7">
-        <v>36191.15625</v>
+        <v>-0</v>
       </c>
       <c r="AX7">
         <v>0</v>
       </c>
       <c r="AY7">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AZ7">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BA7">
-        <v>36196.0546875</v>
+        <v>-0</v>
       </c>
       <c r="BB7">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43839</v>
+        <v>43984</v>
       </c>
       <c r="C8">
         <v>-0</v>
@@ -1990,7 +1990,7 @@
         <v>-0</v>
       </c>
       <c r="F8">
-        <v>237.843994140625</v>
+        <v>400</v>
       </c>
       <c r="G8">
         <v>-0</v>
@@ -2002,7 +2002,7 @@
         <v>-0</v>
       </c>
       <c r="J8">
-        <v>225.0469818115234</v>
+        <v>400</v>
       </c>
       <c r="K8">
         <v>-0</v>
@@ -2014,7 +2014,7 @@
         <v>-0</v>
       </c>
       <c r="N8">
-        <v>275.2573547363281</v>
+        <v>400</v>
       </c>
       <c r="O8">
         <v>-0</v>
@@ -2026,7 +2026,7 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>218.4103546142578</v>
+        <v>400</v>
       </c>
       <c r="S8">
         <v>-0</v>
@@ -2038,7 +2038,7 @@
         <v>-0</v>
       </c>
       <c r="V8">
-        <v>230.6861114501953</v>
+        <v>400</v>
       </c>
       <c r="W8">
         <v>-0</v>
@@ -2050,28 +2050,28 @@
         <v>-0</v>
       </c>
       <c r="Z8">
-        <v>216.0310974121094</v>
+        <v>400</v>
       </c>
       <c r="AA8">
-        <v>175.6979064941406</v>
+        <v>200</v>
       </c>
       <c r="AB8">
-        <v>175.6979064941406</v>
+        <v>200</v>
       </c>
       <c r="AC8">
-        <v>39742.36328125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>79.58860015869141</v>
+        <v>60</v>
       </c>
       <c r="AF8">
-        <v>79.58860015869141</v>
+        <v>60</v>
       </c>
       <c r="AG8">
-        <v>18013.30859375</v>
+        <v>13571.830078125</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>200</v>
       </c>
       <c r="AK8">
-        <v>45229.75</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>200</v>
       </c>
       <c r="AO8">
-        <v>45222.44140625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -2107,19 +2107,19 @@
         <v>200</v>
       </c>
       <c r="AS8">
-        <v>45227.64453125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT8">
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>159.998291015625</v>
+        <v>159.99853515625</v>
       </c>
       <c r="AV8">
         <v>160</v>
       </c>
       <c r="AW8">
-        <v>36191.140625</v>
+        <v>36191.21484375</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>160</v>
       </c>
       <c r="BA8">
-        <v>36193.58203125</v>
+        <v>36191.546875</v>
       </c>
       <c r="BB8">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43848</v>
+        <v>43984.08185185185</v>
       </c>
       <c r="C9">
         <v>-0</v>
@@ -2190,7 +2190,7 @@
         <v>-0</v>
       </c>
       <c r="F9">
-        <v>104.1559753417969</v>
+        <v>400</v>
       </c>
       <c r="G9">
         <v>-0</v>
@@ -2202,7 +2202,7 @@
         <v>-0</v>
       </c>
       <c r="J9">
-        <v>94.56568908691406</v>
+        <v>400</v>
       </c>
       <c r="K9">
         <v>-0</v>
@@ -2214,7 +2214,7 @@
         <v>-0</v>
       </c>
       <c r="N9">
-        <v>113.0809326171875</v>
+        <v>400</v>
       </c>
       <c r="O9">
         <v>-0</v>
@@ -2226,7 +2226,7 @@
         <v>-0</v>
       </c>
       <c r="R9">
-        <v>99.48389434814452</v>
+        <v>400</v>
       </c>
       <c r="S9">
         <v>-0</v>
@@ -2238,7 +2238,7 @@
         <v>-0</v>
       </c>
       <c r="V9">
-        <v>100.7493667602539</v>
+        <v>400</v>
       </c>
       <c r="W9">
         <v>-0</v>
@@ -2250,28 +2250,28 @@
         <v>-0</v>
       </c>
       <c r="Z9">
-        <v>96.71882629394531</v>
+        <v>400</v>
       </c>
       <c r="AA9">
-        <v>168.8940734863281</v>
+        <v>200</v>
       </c>
       <c r="AB9">
-        <v>168.8940734863281</v>
+        <v>200</v>
       </c>
       <c r="AC9">
-        <v>38203.359375</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>78.76194763183594</v>
+        <v>70</v>
       </c>
       <c r="AF9">
-        <v>78.76194763183594</v>
+        <v>70</v>
       </c>
       <c r="AG9">
-        <v>17819.259765625</v>
+        <v>15833.80078125</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>200</v>
       </c>
       <c r="AK9">
-        <v>45198.08203125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>200</v>
       </c>
       <c r="AO9">
-        <v>45181.59375</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2307,19 +2307,19 @@
         <v>200</v>
       </c>
       <c r="AS9">
-        <v>45192.9609375</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT9">
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>159.9981994628906</v>
+        <v>159.9985656738281</v>
       </c>
       <c r="AV9">
         <v>160</v>
       </c>
       <c r="AW9">
-        <v>36191.125</v>
+        <v>36191.22265625</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>160</v>
       </c>
       <c r="BA9">
-        <v>36168.5703125</v>
+        <v>36191.546875</v>
       </c>
       <c r="BB9">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43875</v>
+        <v>43984.32747685185</v>
       </c>
       <c r="C10">
         <v>-0</v>
@@ -2390,7 +2390,7 @@
         <v>-0</v>
       </c>
       <c r="F10">
-        <v>38.66781997680664</v>
+        <v>400</v>
       </c>
       <c r="G10">
         <v>-0</v>
@@ -2402,7 +2402,7 @@
         <v>-0</v>
       </c>
       <c r="J10">
-        <v>33.90373992919922</v>
+        <v>400</v>
       </c>
       <c r="K10">
         <v>-0</v>
@@ -2414,7 +2414,7 @@
         <v>-0</v>
       </c>
       <c r="N10">
-        <v>40.837890625</v>
+        <v>400</v>
       </c>
       <c r="O10">
         <v>-0</v>
@@ -2426,7 +2426,7 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>39.54775619506836</v>
+        <v>400</v>
       </c>
       <c r="S10">
         <v>-0</v>
@@ -2438,7 +2438,7 @@
         <v>-0</v>
       </c>
       <c r="V10">
-        <v>37.46072387695313</v>
+        <v>400</v>
       </c>
       <c r="W10">
         <v>-0</v>
@@ -2450,28 +2450,28 @@
         <v>-0</v>
       </c>
       <c r="Z10">
-        <v>37.18137359619141</v>
+        <v>400</v>
       </c>
       <c r="AA10">
-        <v>152.8412475585938</v>
+        <v>200</v>
       </c>
       <c r="AB10">
-        <v>152.8412475585938</v>
+        <v>200</v>
       </c>
       <c r="AC10">
-        <v>34571.65234375</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>77.10043334960938</v>
+        <v>70</v>
       </c>
       <c r="AF10">
-        <v>77.10043334960938</v>
+        <v>70</v>
       </c>
       <c r="AG10">
-        <v>17439.478515625</v>
+        <v>15833.80078125</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>200</v>
       </c>
       <c r="AK10">
-        <v>45396.78515625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>200</v>
       </c>
       <c r="AO10">
-        <v>45549.54296875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -2507,19 +2507,19 @@
         <v>200</v>
       </c>
       <c r="AS10">
-        <v>45450.10546875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>159.9980926513672</v>
+        <v>159.9985198974609</v>
       </c>
       <c r="AV10">
         <v>160</v>
       </c>
       <c r="AW10">
-        <v>36191.10546875</v>
+        <v>36191.2109375</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>160</v>
       </c>
       <c r="BA10">
-        <v>36208.31640625</v>
+        <v>36191.546875</v>
       </c>
       <c r="BB10">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43956</v>
+        <v>43985</v>
       </c>
       <c r="C11">
         <v>-0</v>
@@ -2590,7 +2590,7 @@
         <v>-0</v>
       </c>
       <c r="F11">
-        <v>14.31050109863281</v>
+        <v>400</v>
       </c>
       <c r="G11">
         <v>-0</v>
@@ -2602,7 +2602,7 @@
         <v>-0</v>
       </c>
       <c r="J11">
-        <v>13.01189231872559</v>
+        <v>400</v>
       </c>
       <c r="K11">
         <v>-0</v>
@@ -2614,7 +2614,7 @@
         <v>-0</v>
       </c>
       <c r="N11">
-        <v>14.71670818328857</v>
+        <v>400</v>
       </c>
       <c r="O11">
         <v>-0</v>
@@ -2626,7 +2626,7 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>14.88252544403076</v>
+        <v>400</v>
       </c>
       <c r="S11">
         <v>-0</v>
@@ -2638,7 +2638,7 @@
         <v>-0</v>
       </c>
       <c r="V11">
-        <v>14.14807033538819</v>
+        <v>400</v>
       </c>
       <c r="W11">
         <v>-0</v>
@@ -2650,28 +2650,28 @@
         <v>-0</v>
       </c>
       <c r="Z11">
-        <v>13.99981212615967</v>
+        <v>400</v>
       </c>
       <c r="AA11">
-        <v>67.00836944580078</v>
+        <v>200</v>
       </c>
       <c r="AB11">
-        <v>67.00836944580078</v>
+        <v>200</v>
       </c>
       <c r="AC11">
-        <v>15109.82421875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>72.99514770507812</v>
+        <v>70</v>
       </c>
       <c r="AF11">
-        <v>72.99514770507812</v>
+        <v>70</v>
       </c>
       <c r="AG11">
-        <v>16510.76953125</v>
+        <v>15833.80078125</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>200</v>
       </c>
       <c r="AK11">
-        <v>46033.953125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>200</v>
       </c>
       <c r="AO11">
-        <v>46746.7578125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2707,19 +2707,19 @@
         <v>200</v>
       </c>
       <c r="AS11">
-        <v>46457.94140625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT11">
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>159.9978332519531</v>
+        <v>159.9984436035156</v>
       </c>
       <c r="AV11">
         <v>160</v>
       </c>
       <c r="AW11">
-        <v>36190.4140625</v>
+        <v>36191.19140625</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>160</v>
       </c>
       <c r="BA11">
-        <v>36525.390625</v>
+        <v>36191.546875</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44014.04166666666</v>
+        <v>43986</v>
       </c>
       <c r="C12">
         <v>-0</v>
@@ -2790,7 +2790,7 @@
         <v>-0</v>
       </c>
       <c r="F12">
-        <v>8.309110641479492</v>
+        <v>400</v>
       </c>
       <c r="G12">
         <v>-0</v>
@@ -2802,7 +2802,7 @@
         <v>-0</v>
       </c>
       <c r="J12">
-        <v>6.876482009887695</v>
+        <v>400</v>
       </c>
       <c r="K12">
         <v>-0</v>
@@ -2814,7 +2814,7 @@
         <v>-0</v>
       </c>
       <c r="N12">
-        <v>8.430241584777832</v>
+        <v>400</v>
       </c>
       <c r="O12">
         <v>-0</v>
@@ -2826,7 +2826,7 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>8.938080787658691</v>
+        <v>400</v>
       </c>
       <c r="S12">
         <v>-0</v>
@@ -2838,7 +2838,7 @@
         <v>-0</v>
       </c>
       <c r="V12">
-        <v>8.171197891235353</v>
+        <v>400</v>
       </c>
       <c r="W12">
         <v>-0</v>
@@ -2850,28 +2850,28 @@
         <v>-0</v>
       </c>
       <c r="Z12">
-        <v>8.147377014160156</v>
+        <v>400</v>
       </c>
       <c r="AA12">
-        <v>52.68150329589844</v>
+        <v>193.767318725586</v>
       </c>
       <c r="AB12">
-        <v>52.68150329589844</v>
+        <v>193.767318725586</v>
       </c>
       <c r="AC12">
-        <v>11853.42578125</v>
+        <v>43829.6171875</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>70.20341491699219</v>
+        <v>75</v>
       </c>
       <c r="AF12">
-        <v>70.20341491699219</v>
+        <v>75</v>
       </c>
       <c r="AG12">
-        <v>15879.5390625</v>
+        <v>16964.787109375</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>200</v>
       </c>
       <c r="AK12">
-        <v>47384.7421875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>200</v>
       </c>
       <c r="AO12">
-        <v>47988.26953125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -2907,19 +2907,19 @@
         <v>200</v>
       </c>
       <c r="AS12">
-        <v>47672.41796875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT12">
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>159.9976501464844</v>
+        <v>159.9984130859375</v>
       </c>
       <c r="AV12">
         <v>160</v>
       </c>
       <c r="AW12">
-        <v>36181.2265625</v>
+        <v>36191.18359375</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>160</v>
       </c>
       <c r="BA12">
-        <v>36728.1875</v>
+        <v>36191.546875</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44015.04166666666</v>
+        <v>43987</v>
       </c>
       <c r="C13">
         <v>-0</v>
@@ -2990,7 +2990,7 @@
         <v>-0</v>
       </c>
       <c r="F13">
-        <v>8.202272415161133</v>
+        <v>400</v>
       </c>
       <c r="G13">
         <v>-0</v>
@@ -3002,7 +3002,7 @@
         <v>-0</v>
       </c>
       <c r="J13">
-        <v>6.766627311706543</v>
+        <v>400</v>
       </c>
       <c r="K13">
         <v>-0</v>
@@ -3014,7 +3014,7 @@
         <v>-0</v>
       </c>
       <c r="N13">
-        <v>8.338823318481445</v>
+        <v>400</v>
       </c>
       <c r="O13">
         <v>-0</v>
@@ -3026,7 +3026,7 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>8.83106517791748</v>
+        <v>371.9790649414063</v>
       </c>
       <c r="S13">
         <v>-0</v>
@@ -3038,7 +3038,7 @@
         <v>-0</v>
       </c>
       <c r="V13">
-        <v>8.06978702545166</v>
+        <v>400</v>
       </c>
       <c r="W13">
         <v>-0</v>
@@ -3050,28 +3050,28 @@
         <v>-0</v>
       </c>
       <c r="Z13">
-        <v>8.048921585083008</v>
+        <v>378.7207336425781</v>
       </c>
       <c r="AA13">
-        <v>52.44504547119141</v>
+        <v>178.1401824951172</v>
       </c>
       <c r="AB13">
-        <v>52.44504547119141</v>
+        <v>178.1401824951172</v>
       </c>
       <c r="AC13">
-        <v>11845.935546875</v>
+        <v>40294.8046875</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>70.15513610839844</v>
+        <v>80.15318298339844</v>
       </c>
       <c r="AF13">
-        <v>70.15513610839844</v>
+        <v>80.15318298339844</v>
       </c>
       <c r="AG13">
-        <v>15868.6240234375</v>
+        <v>18130.421875</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>200</v>
       </c>
       <c r="AK13">
-        <v>47472.6796875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>200</v>
       </c>
       <c r="AO13">
-        <v>48091.4140625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -3107,19 +3107,19 @@
         <v>200</v>
       </c>
       <c r="AS13">
-        <v>47768.71875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT13">
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>159.9976501464844</v>
+        <v>159.9983673095703</v>
       </c>
       <c r="AV13">
         <v>160</v>
       </c>
       <c r="AW13">
-        <v>36181.00390625</v>
+        <v>36191.17578125</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>160</v>
       </c>
       <c r="BA13">
-        <v>36731.30859375</v>
+        <v>36191.546875</v>
       </c>
       <c r="BB13">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44016.04166666666</v>
+        <v>43990</v>
       </c>
       <c r="C14">
         <v>-0</v>
@@ -3190,7 +3190,7 @@
         <v>-0</v>
       </c>
       <c r="F14">
-        <v>8.097699165344237</v>
+        <v>237.8736419677734</v>
       </c>
       <c r="G14">
         <v>-0</v>
@@ -3202,7 +3202,7 @@
         <v>-0</v>
       </c>
       <c r="J14">
-        <v>6.659033298492433</v>
+        <v>225.0528411865234</v>
       </c>
       <c r="K14">
         <v>-0</v>
@@ -3214,7 +3214,7 @@
         <v>-0</v>
       </c>
       <c r="N14">
-        <v>8.249423027038574</v>
+        <v>275.2684326171875</v>
       </c>
       <c r="O14">
         <v>-0</v>
@@ -3226,7 +3226,7 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>8.725861549377441</v>
+        <v>218.4303283691406</v>
       </c>
       <c r="S14">
         <v>-0</v>
@@ -3238,7 +3238,7 @@
         <v>-0</v>
       </c>
       <c r="V14">
-        <v>7.970501899719237</v>
+        <v>230.7219696044922</v>
       </c>
       <c r="W14">
         <v>-0</v>
@@ -3250,76 +3250,76 @@
         <v>-0</v>
       </c>
       <c r="Z14">
-        <v>7.952273845672607</v>
+        <v>216.0445404052734</v>
       </c>
       <c r="AA14">
-        <v>52.20840835571289</v>
+        <v>175.6646423339844</v>
       </c>
       <c r="AB14">
-        <v>52.20840835571289</v>
+        <v>175.6646423339844</v>
       </c>
       <c r="AC14">
-        <v>11833.29296875</v>
+        <v>39734.84375</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>70.10690307617189</v>
+        <v>79.63081359863281</v>
       </c>
       <c r="AF14">
-        <v>70.10690307617189</v>
+        <v>79.63081359863281</v>
       </c>
       <c r="AG14">
-        <v>15857.7177734375</v>
+        <v>18012.263671875</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>200.0006713867188</v>
+        <v>200</v>
       </c>
       <c r="AJ14">
-        <v>200.0006713867188</v>
+        <v>200</v>
       </c>
       <c r="AK14">
-        <v>47556.484375</v>
+        <v>45229.72265625</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>200.0008544921875</v>
+        <v>200</v>
       </c>
       <c r="AN14">
-        <v>200.0008544921875</v>
+        <v>200</v>
       </c>
       <c r="AO14">
-        <v>48190.34375</v>
+        <v>45222.18359375</v>
       </c>
       <c r="AP14">
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>200.0007781982422</v>
+        <v>200</v>
       </c>
       <c r="AR14">
-        <v>200.0007781982422</v>
+        <v>200</v>
       </c>
       <c r="AS14">
-        <v>47860.83984375</v>
+        <v>45227.62109375</v>
       </c>
       <c r="AT14">
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>159.9976501464844</v>
+        <v>159.998291015625</v>
       </c>
       <c r="AV14">
         <v>160</v>
       </c>
       <c r="AW14">
-        <v>36180.77734375</v>
+        <v>36191.16015625</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>160</v>
       </c>
       <c r="BA14">
-        <v>36734.375</v>
+        <v>36189.5859375</v>
       </c>
       <c r="BB14">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44017.04166666666</v>
+        <v>43999</v>
       </c>
       <c r="C15">
         <v>-0</v>
@@ -3390,7 +3390,7 @@
         <v>-0</v>
       </c>
       <c r="F15">
-        <v>7.995330810546875</v>
+        <v>104.1440887451172</v>
       </c>
       <c r="G15">
         <v>-0</v>
@@ -3402,7 +3402,7 @@
         <v>-0</v>
       </c>
       <c r="J15">
-        <v>6.553650379180907</v>
+        <v>94.56572723388672</v>
       </c>
       <c r="K15">
         <v>-0</v>
@@ -3414,7 +3414,7 @@
         <v>-0</v>
       </c>
       <c r="N15">
-        <v>8.161980628967285</v>
+        <v>113.0683364868164</v>
       </c>
       <c r="O15">
         <v>-0</v>
@@ -3426,7 +3426,7 @@
         <v>-0</v>
       </c>
       <c r="R15">
-        <v>8.619873046875</v>
+        <v>99.47277069091795</v>
       </c>
       <c r="S15">
         <v>-0</v>
@@ -3438,7 +3438,7 @@
         <v>-0</v>
       </c>
       <c r="V15">
-        <v>7.873286724090576</v>
+        <v>100.7339553833008</v>
       </c>
       <c r="W15">
         <v>-0</v>
@@ -3450,76 +3450,76 @@
         <v>-0</v>
       </c>
       <c r="Z15">
-        <v>7.857388019561768</v>
+        <v>96.70235443115234</v>
       </c>
       <c r="AA15">
-        <v>51.99063491821289</v>
+        <v>168.8983154296875</v>
       </c>
       <c r="AB15">
-        <v>51.99063491821289</v>
+        <v>168.8983154296875</v>
       </c>
       <c r="AC15">
-        <v>11816.810546875</v>
+        <v>38204.31640625</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>70.0587158203125</v>
+        <v>78.81295776367188</v>
       </c>
       <c r="AF15">
-        <v>70.0587158203125</v>
+        <v>78.81295776367188</v>
       </c>
       <c r="AG15">
-        <v>15846.8212890625</v>
+        <v>17827.267578125</v>
       </c>
       <c r="AH15">
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>200.000732421875</v>
+        <v>200</v>
       </c>
       <c r="AJ15">
-        <v>200.000732421875</v>
+        <v>200</v>
       </c>
       <c r="AK15">
-        <v>47638</v>
+        <v>45198.1171875</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>200.0009155273437</v>
+        <v>200</v>
       </c>
       <c r="AN15">
-        <v>200.0009155273437</v>
+        <v>200</v>
       </c>
       <c r="AO15">
-        <v>48287.2109375</v>
+        <v>45181.4921875</v>
       </c>
       <c r="AP15">
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>200.0010528564453</v>
+        <v>200</v>
       </c>
       <c r="AR15">
-        <v>200.0010528564453</v>
+        <v>200</v>
       </c>
       <c r="AS15">
-        <v>47952.0078125</v>
+        <v>45192.99609375</v>
       </c>
       <c r="AT15">
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>159.9976348876953</v>
+        <v>159.9981994628906</v>
       </c>
       <c r="AV15">
         <v>160</v>
       </c>
       <c r="AW15">
-        <v>36180.54296875</v>
+        <v>36191.13671875</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>160</v>
       </c>
       <c r="BA15">
-        <v>36737.40625</v>
+        <v>36166.00390625</v>
       </c>
       <c r="BB15">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44019.04166666666</v>
+        <v>44014.04166666666</v>
       </c>
       <c r="C16">
         <v>-0</v>
@@ -3590,7 +3590,7 @@
         <v>-0</v>
       </c>
       <c r="F16">
-        <v>7.799154281616211</v>
+        <v>50.44158172607422</v>
       </c>
       <c r="G16">
         <v>-0</v>
@@ -3602,7 +3602,7 @@
         <v>-0</v>
       </c>
       <c r="J16">
-        <v>6.351519107818604</v>
+        <v>44.59918212890625</v>
       </c>
       <c r="K16">
         <v>-0</v>
@@ -3614,7 +3614,7 @@
         <v>-0</v>
       </c>
       <c r="N16">
-        <v>7.992116928100586</v>
+        <v>51.04338836669922</v>
       </c>
       <c r="O16">
         <v>-0</v>
@@ -3626,7 +3626,7 @@
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>8.418903350830076</v>
+        <v>52.60189056396485</v>
       </c>
       <c r="S16">
         <v>-0</v>
@@ -3638,7 +3638,7 @@
         <v>-0</v>
       </c>
       <c r="V16">
-        <v>7.686896800994872</v>
+        <v>48.96584701538086</v>
       </c>
       <c r="W16">
         <v>-0</v>
@@ -3650,28 +3650,28 @@
         <v>-0</v>
       </c>
       <c r="Z16">
-        <v>7.674521446228027</v>
+        <v>49.49996185302734</v>
       </c>
       <c r="AA16">
-        <v>51.60514450073242</v>
+        <v>160.7452087402344</v>
       </c>
       <c r="AB16">
-        <v>51.60514450073242</v>
+        <v>160.7452087402344</v>
       </c>
       <c r="AC16">
-        <v>11772.826171875</v>
+        <v>36360.109375</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>69.962646484375</v>
+        <v>77.81755828857422</v>
       </c>
       <c r="AF16">
-        <v>69.962646484375</v>
+        <v>77.81755828857422</v>
       </c>
       <c r="AG16">
-        <v>15825.099609375</v>
+        <v>17602.111328125</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>200</v>
       </c>
       <c r="AK16">
-        <v>47797.0625</v>
+        <v>45237.27734375</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -3695,43 +3695,43 @@
         <v>200</v>
       </c>
       <c r="AO16">
-        <v>48479.8984375</v>
+        <v>45343.32421875</v>
       </c>
       <c r="AP16">
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>200.0055389404297</v>
+        <v>200</v>
       </c>
       <c r="AR16">
-        <v>200.0055389404297</v>
+        <v>200</v>
       </c>
       <c r="AS16">
-        <v>48163.0703125</v>
+        <v>45273.16015625</v>
       </c>
       <c r="AT16">
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>159.9976348876953</v>
+        <v>159.9981231689453</v>
       </c>
       <c r="AV16">
         <v>160</v>
       </c>
       <c r="AW16">
-        <v>36180.0625</v>
+        <v>36191.12109375</v>
       </c>
       <c r="AX16">
         <v>0</v>
       </c>
       <c r="AY16">
-        <v>160.0000610351562</v>
+        <v>160</v>
       </c>
       <c r="AZ16">
-        <v>160.0000610351562</v>
+        <v>160</v>
       </c>
       <c r="BA16">
-        <v>36743.35546875</v>
+        <v>36149.46875</v>
       </c>
       <c r="BB16">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44020.04166666666</v>
+        <v>44015.04166666666</v>
       </c>
       <c r="C17">
         <v>-0</v>
@@ -3790,7 +3790,7 @@
         <v>-0</v>
       </c>
       <c r="F17">
-        <v>7.703034400939941</v>
+        <v>47.15759658813477</v>
       </c>
       <c r="G17">
         <v>-0</v>
@@ -3802,7 +3802,7 @@
         <v>-0</v>
       </c>
       <c r="J17">
-        <v>6.252418994903564</v>
+        <v>41.55097579956055</v>
       </c>
       <c r="K17">
         <v>-0</v>
@@ -3814,7 +3814,7 @@
         <v>-0</v>
       </c>
       <c r="N17">
-        <v>7.929346084594727</v>
+        <v>48.90939712524414</v>
       </c>
       <c r="O17">
         <v>-0</v>
@@ -3826,7 +3826,7 @@
         <v>-0</v>
       </c>
       <c r="R17">
-        <v>8.320530891418457</v>
+        <v>49.70340728759766</v>
       </c>
       <c r="S17">
         <v>-0</v>
@@ -3838,7 +3838,7 @@
         <v>-0</v>
       </c>
       <c r="V17">
-        <v>7.595547199249268</v>
+        <v>45.8387565612793</v>
       </c>
       <c r="W17">
         <v>-0</v>
@@ -3850,88 +3850,88 @@
         <v>-0</v>
       </c>
       <c r="Z17">
-        <v>7.584658145904541</v>
+        <v>46.63175582885742</v>
       </c>
       <c r="AA17">
-        <v>51.4401969909668</v>
+        <v>160.2146606445312</v>
       </c>
       <c r="AB17">
-        <v>51.4401969909668</v>
+        <v>160.2146606445312</v>
       </c>
       <c r="AC17">
-        <v>11749.455078125</v>
+        <v>36240.1015625</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>69.91453552246094</v>
+        <v>77.75233459472656</v>
       </c>
       <c r="AF17">
-        <v>69.91453552246094</v>
+        <v>77.75233459472656</v>
       </c>
       <c r="AG17">
-        <v>15814.22265625</v>
+        <v>17587.357421875</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>200.000732421875</v>
+        <v>200</v>
       </c>
       <c r="AJ17">
-        <v>200.000732421875</v>
+        <v>200</v>
       </c>
       <c r="AK17">
-        <v>47873.40234375</v>
+        <v>45255.69921875</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>199.2086486816406</v>
+        <v>200</v>
       </c>
       <c r="AN17">
-        <v>199.2086486816406</v>
+        <v>200</v>
       </c>
       <c r="AO17">
-        <v>48338.82421875</v>
+        <v>45367.9453125</v>
       </c>
       <c r="AP17">
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>200.0013275146484</v>
+        <v>200</v>
       </c>
       <c r="AR17">
-        <v>200.0013275146484</v>
+        <v>200</v>
       </c>
       <c r="AS17">
-        <v>48301.60546875</v>
+        <v>45293.69921875</v>
       </c>
       <c r="AT17">
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>159.9976348876953</v>
+        <v>159.9981231689453</v>
       </c>
       <c r="AV17">
         <v>160</v>
       </c>
       <c r="AW17">
-        <v>36179.81640625</v>
+        <v>36191.12109375</v>
       </c>
       <c r="AX17">
         <v>0</v>
       </c>
       <c r="AY17">
-        <v>160.0000457763672</v>
+        <v>160</v>
       </c>
       <c r="AZ17">
-        <v>160.0000457763672</v>
+        <v>160</v>
       </c>
       <c r="BA17">
-        <v>36746.30078125</v>
+        <v>36148.71875</v>
       </c>
       <c r="BB17">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="BG17">
-        <v>0.00419695908203721</v>
+        <v>-0</v>
       </c>
       <c r="BH17">
-        <v>0.01605909876525402</v>
+        <v>-0</v>
       </c>
       <c r="BI17">
-        <v>0.01165465265512466</v>
+        <v>-0</v>
       </c>
       <c r="BJ17">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44021.04166666666</v>
+        <v>44016.04166666666</v>
       </c>
       <c r="C18">
         <v>-0</v>
@@ -3990,7 +3990,7 @@
         <v>-0</v>
       </c>
       <c r="F18">
-        <v>7.608919620513916</v>
+        <v>44.66676330566406</v>
       </c>
       <c r="G18">
         <v>-0</v>
@@ -4002,7 +4002,7 @@
         <v>-0</v>
       </c>
       <c r="J18">
-        <v>6.155337333679199</v>
+        <v>38.78249359130859</v>
       </c>
       <c r="K18">
         <v>-0</v>
@@ -4014,7 +4014,7 @@
         <v>-0</v>
       </c>
       <c r="N18">
-        <v>7.878113746643066</v>
+        <v>47.26985168457031</v>
       </c>
       <c r="O18">
         <v>-0</v>
@@ -4026,7 +4026,7 @@
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>8.22369384765625</v>
+        <v>47.01203536987305</v>
       </c>
       <c r="S18">
         <v>-0</v>
@@ -4038,7 +4038,7 @@
         <v>-0</v>
       </c>
       <c r="V18">
-        <v>7.506080150604247</v>
+        <v>42.98169326782227</v>
       </c>
       <c r="W18">
         <v>-0</v>
@@ -4050,88 +4050,88 @@
         <v>-0</v>
       </c>
       <c r="Z18">
-        <v>7.496415615081787</v>
+        <v>43.98498153686523</v>
       </c>
       <c r="AA18">
-        <v>51.28434371948242</v>
+        <v>159.6983489990234</v>
       </c>
       <c r="AB18">
-        <v>51.28434371948242</v>
+        <v>159.6983489990234</v>
       </c>
       <c r="AC18">
-        <v>11724.4931640625</v>
+        <v>36123.3125</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>69.86650848388672</v>
+        <v>77.68794250488281</v>
       </c>
       <c r="AF18">
-        <v>69.86650848388672</v>
+        <v>77.68794250488281</v>
       </c>
       <c r="AG18">
-        <v>15803.3623046875</v>
+        <v>17572.791015625</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>200.0006408691406</v>
+        <v>200</v>
       </c>
       <c r="AJ18">
-        <v>200.0006408691406</v>
+        <v>200</v>
       </c>
       <c r="AK18">
-        <v>47947.95703125</v>
+        <v>45273.82421875</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>197.7649383544922</v>
+        <v>200</v>
       </c>
       <c r="AN18">
-        <v>197.7649383544922</v>
+        <v>200</v>
       </c>
       <c r="AO18">
-        <v>47997.8125</v>
+        <v>45392.10546875</v>
       </c>
       <c r="AP18">
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>200.0018463134766</v>
+        <v>200</v>
       </c>
       <c r="AR18">
-        <v>200.0018463134766</v>
+        <v>200</v>
       </c>
       <c r="AS18">
-        <v>48431.1328125</v>
+        <v>45313.8984375</v>
       </c>
       <c r="AT18">
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>159.9976196289062</v>
+        <v>159.9981231689453</v>
       </c>
       <c r="AV18">
         <v>160</v>
       </c>
       <c r="AW18">
-        <v>36179.56640625</v>
+        <v>36191.12109375</v>
       </c>
       <c r="AX18">
         <v>0</v>
       </c>
       <c r="AY18">
-        <v>160.0000305175781</v>
+        <v>160</v>
       </c>
       <c r="AZ18">
-        <v>160.0000305175781</v>
+        <v>160</v>
       </c>
       <c r="BA18">
-        <v>36749.2109375</v>
+        <v>36148.015625</v>
       </c>
       <c r="BB18">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>-0</v>
       </c>
       <c r="BD18">
-        <v>0.01446476392447948</v>
+        <v>-0</v>
       </c>
       <c r="BE18">
         <v>-0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="BG18">
-        <v>0.0003887408820446581</v>
+        <v>-0</v>
       </c>
       <c r="BH18">
-        <v>0.01959747821092606</v>
+        <v>-0</v>
       </c>
       <c r="BI18">
-        <v>0.00104290375020355</v>
+        <v>-0</v>
       </c>
       <c r="BJ18">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44022.04166666666</v>
+        <v>44017.04166666666</v>
       </c>
       <c r="C19">
         <v>-0</v>
@@ -4190,7 +4190,7 @@
         <v>-0</v>
       </c>
       <c r="F19">
-        <v>7.516762733459473</v>
+        <v>42.37998199462891</v>
       </c>
       <c r="G19">
         <v>-0</v>
@@ -4202,7 +4202,7 @@
         <v>-0</v>
       </c>
       <c r="J19">
-        <v>6.070174694061278</v>
+        <v>36.26360702514648</v>
       </c>
       <c r="K19">
         <v>-0</v>
@@ -4214,7 +4214,7 @@
         <v>-0</v>
       </c>
       <c r="N19">
-        <v>7.832942962646483</v>
+        <v>45.73205184936523</v>
       </c>
       <c r="O19">
         <v>-0</v>
@@ -4226,7 +4226,7 @@
         <v>-0</v>
       </c>
       <c r="R19">
-        <v>8.128207206726074</v>
+        <v>44.5076904296875</v>
       </c>
       <c r="S19">
         <v>-0</v>
@@ -4238,7 +4238,7 @@
         <v>-0</v>
       </c>
       <c r="V19">
-        <v>7.418452739715576</v>
+        <v>40.74935531616211</v>
       </c>
       <c r="W19">
         <v>-0</v>
@@ -4250,28 +4250,28 @@
         <v>-0</v>
       </c>
       <c r="Z19">
-        <v>7.40976095199585</v>
+        <v>41.53675842285156</v>
       </c>
       <c r="AA19">
-        <v>36.64487075805664</v>
+        <v>159.1953430175781</v>
       </c>
       <c r="AB19">
-        <v>36.64487075805664</v>
+        <v>159.1953430175781</v>
       </c>
       <c r="AC19">
-        <v>8142.49951171875</v>
+        <v>36009.53515625</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>69.81855010986328</v>
+        <v>77.62451934814453</v>
       </c>
       <c r="AF19">
-        <v>69.81855010986328</v>
+        <v>77.62451934814453</v>
       </c>
       <c r="AG19">
-        <v>15792.51953125</v>
+        <v>17558.4453125</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -4283,19 +4283,19 @@
         <v>200</v>
       </c>
       <c r="AK19">
-        <v>48021.87109375</v>
+        <v>45291.65234375</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>196.3502349853516</v>
+        <v>200</v>
       </c>
       <c r="AN19">
-        <v>196.3502349853516</v>
+        <v>200</v>
       </c>
       <c r="AO19">
-        <v>47662.77734375</v>
+        <v>45415.8125</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -4307,19 +4307,19 @@
         <v>200</v>
       </c>
       <c r="AS19">
-        <v>48782.61328125</v>
+        <v>45333.76171875</v>
       </c>
       <c r="AT19">
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>159.9976196289062</v>
+        <v>159.9981231689453</v>
       </c>
       <c r="AV19">
         <v>160</v>
       </c>
       <c r="AW19">
-        <v>36179.31640625</v>
+        <v>36191.12109375</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>160</v>
       </c>
       <c r="BA19">
-        <v>36752.09765625</v>
+        <v>36147.35546875</v>
       </c>
       <c r="BB19">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>-0</v>
       </c>
       <c r="BD19">
-        <v>0.01446306705474854</v>
+        <v>-0</v>
       </c>
       <c r="BE19">
         <v>-0</v>
@@ -4349,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="BG19">
-        <v>4.689780325861648e-05</v>
+        <v>-0</v>
       </c>
       <c r="BH19">
-        <v>0.02051405049860477</v>
+        <v>-0</v>
       </c>
       <c r="BI19">
-        <v>0.0001258161792065948</v>
+        <v>-0</v>
       </c>
       <c r="BJ19">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44023.04166666666</v>
+        <v>44019.04166666666</v>
       </c>
       <c r="C20">
         <v>-0</v>
@@ -4390,7 +4390,7 @@
         <v>-0</v>
       </c>
       <c r="F20">
-        <v>7.426513671875</v>
+        <v>39.44834136962891</v>
       </c>
       <c r="G20">
         <v>-0</v>
@@ -4402,7 +4402,7 @@
         <v>-0</v>
       </c>
       <c r="J20">
-        <v>5.996718883514403</v>
+        <v>34.29814910888672</v>
       </c>
       <c r="K20">
         <v>-0</v>
@@ -4414,7 +4414,7 @@
         <v>-0</v>
       </c>
       <c r="N20">
-        <v>7.777062892913817</v>
+        <v>42.95629501342773</v>
       </c>
       <c r="O20">
         <v>-0</v>
@@ -4426,7 +4426,7 @@
         <v>-0</v>
       </c>
       <c r="R20">
-        <v>8.034524917602539</v>
+        <v>40.13063812255859</v>
       </c>
       <c r="S20">
         <v>-0</v>
@@ -4438,7 +4438,7 @@
         <v>-0</v>
       </c>
       <c r="V20">
-        <v>7.332621574401855</v>
+        <v>37.93206787109375</v>
       </c>
       <c r="W20">
         <v>-0</v>
@@ -4450,28 +4450,28 @@
         <v>-0</v>
       </c>
       <c r="Z20">
-        <v>7.324658393859862</v>
+        <v>37.37655639648438</v>
       </c>
       <c r="AA20">
-        <v>37.46326065063477</v>
+        <v>158.2205963134766</v>
       </c>
       <c r="AB20">
-        <v>37.46326065063477</v>
+        <v>158.2205963134766</v>
       </c>
       <c r="AC20">
-        <v>8345.10546875</v>
+        <v>35789.046875</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>10</v>
+        <v>77.49992370605469</v>
       </c>
       <c r="AF20">
-        <v>10</v>
+        <v>77.49992370605469</v>
       </c>
       <c r="AG20">
-        <v>2261.9375</v>
+        <v>17530.26171875</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -4483,55 +4483,55 @@
         <v>200</v>
       </c>
       <c r="AK20">
-        <v>48186.49609375</v>
+        <v>45326.19921875</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>195.0862121582031</v>
+        <v>200</v>
       </c>
       <c r="AN20">
-        <v>195.0862121582031</v>
+        <v>200</v>
       </c>
       <c r="AO20">
-        <v>47389.95703125</v>
+        <v>45461.578125</v>
       </c>
       <c r="AP20">
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>199.9999694824219</v>
+        <v>200</v>
       </c>
       <c r="AR20">
-        <v>199.9999694824219</v>
+        <v>200</v>
       </c>
       <c r="AS20">
-        <v>49154.28125</v>
+        <v>45372.26171875</v>
       </c>
       <c r="AT20">
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>159.9976196289062</v>
+        <v>159.9981079101562</v>
       </c>
       <c r="AV20">
         <v>160</v>
       </c>
       <c r="AW20">
-        <v>36179.06640625</v>
+        <v>36191.1171875</v>
       </c>
       <c r="AX20">
         <v>0</v>
       </c>
       <c r="AY20">
-        <v>160</v>
+        <v>159.9999694824219</v>
       </c>
       <c r="AZ20">
-        <v>160</v>
+        <v>159.9999694824219</v>
       </c>
       <c r="BA20">
-        <v>36754.9453125</v>
+        <v>36166.20703125</v>
       </c>
       <c r="BB20">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>-0</v>
       </c>
       <c r="BD20">
-        <v>0.01445911545306444</v>
+        <v>-0</v>
       </c>
       <c r="BE20">
         <v>-0</v>
@@ -4549,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="BG20">
-        <v>5.657767360389697e-06</v>
+        <v>-0</v>
       </c>
       <c r="BH20">
-        <v>0.0206205528229475</v>
+        <v>-0</v>
       </c>
       <c r="BI20">
-        <v>1.517850796517451e-05</v>
+        <v>-0</v>
       </c>
       <c r="BJ20">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44024.04166666666</v>
+        <v>44020.04166666666</v>
       </c>
       <c r="C21">
         <v>-0</v>
@@ -4590,7 +4590,7 @@
         <v>-0</v>
       </c>
       <c r="F21">
-        <v>7.338131427764893</v>
+        <v>38.25393676757813</v>
       </c>
       <c r="G21">
         <v>-0</v>
@@ -4602,7 +4602,7 @@
         <v>-0</v>
       </c>
       <c r="J21">
-        <v>5.924825191497803</v>
+        <v>33.41743087768555</v>
       </c>
       <c r="K21">
         <v>-0</v>
@@ -4614,7 +4614,7 @@
         <v>-0</v>
       </c>
       <c r="N21">
-        <v>7.729185104370117</v>
+        <v>41.62718963623047</v>
       </c>
       <c r="O21">
         <v>-0</v>
@@ -4626,7 +4626,7 @@
         <v>-0</v>
       </c>
       <c r="R21">
-        <v>7.939260482788086</v>
+        <v>38.30219650268555</v>
       </c>
       <c r="S21">
         <v>-0</v>
@@ -4638,7 +4638,7 @@
         <v>-0</v>
       </c>
       <c r="V21">
-        <v>7.248547077178955</v>
+        <v>36.95621109008789</v>
       </c>
       <c r="W21">
         <v>-0</v>
@@ -4650,28 +4650,28 @@
         <v>-0</v>
       </c>
       <c r="Z21">
-        <v>7.241076469421388</v>
+        <v>35.74836349487305</v>
       </c>
       <c r="AA21">
-        <v>37.72491455078125</v>
+        <v>157.7513275146484</v>
       </c>
       <c r="AB21">
-        <v>37.72491455078125</v>
+        <v>157.7513275146484</v>
       </c>
       <c r="AC21">
-        <v>8411.3564453125</v>
+        <v>35682.90234375</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>53.67485809326172</v>
+        <v>77.43868255615234</v>
       </c>
       <c r="AF21">
-        <v>53.67485809326172</v>
+        <v>77.43868255615234</v>
       </c>
       <c r="AG21">
-        <v>12140.9189453125</v>
+        <v>17516.41015625</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -4683,43 +4683,43 @@
         <v>200</v>
       </c>
       <c r="AK21">
-        <v>48344.71875</v>
+        <v>45343.0859375</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>193.9023895263672</v>
+        <v>200</v>
       </c>
       <c r="AN21">
-        <v>193.9023895263672</v>
+        <v>200</v>
       </c>
       <c r="AO21">
-        <v>47134.44140625</v>
+        <v>45483.91796875</v>
       </c>
       <c r="AP21">
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>199.9999847412109</v>
+        <v>200</v>
       </c>
       <c r="AR21">
-        <v>199.9999847412109</v>
+        <v>200</v>
       </c>
       <c r="AS21">
-        <v>49502.59765625</v>
+        <v>45391.08984375</v>
       </c>
       <c r="AT21">
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>159.9976196289062</v>
+        <v>159.9981079101562</v>
       </c>
       <c r="AV21">
         <v>160</v>
       </c>
       <c r="AW21">
-        <v>36178.8125</v>
+        <v>36191.1171875</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>160</v>
       </c>
       <c r="BA21">
-        <v>36757.76953125</v>
+        <v>36175.96484375</v>
       </c>
       <c r="BB21">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>-0</v>
       </c>
       <c r="BD21">
-        <v>0.01445517409592867</v>
+        <v>-0</v>
       </c>
       <c r="BE21">
         <v>-0</v>
@@ -4749,13 +4749,13 @@
         <v>0</v>
       </c>
       <c r="BG21">
-        <v>6.826753633504268e-07</v>
+        <v>0.00419695908203721</v>
       </c>
       <c r="BH21">
-        <v>0.02062978968024254</v>
+        <v>0.01605909876525402</v>
       </c>
       <c r="BI21">
-        <v>1.831463350754348e-06</v>
+        <v>0.01165465265512466</v>
       </c>
       <c r="BJ21">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44025.04166666666</v>
+        <v>44021.04166666666</v>
       </c>
       <c r="C22">
         <v>-0</v>
@@ -4790,7 +4790,7 @@
         <v>-0</v>
       </c>
       <c r="F22">
-        <v>7.251577854156494</v>
+        <v>37.26353454589844</v>
       </c>
       <c r="G22">
         <v>-0</v>
@@ -4802,7 +4802,7 @@
         <v>-0</v>
       </c>
       <c r="J22">
-        <v>5.854447364807129</v>
+        <v>32.57761764526367</v>
       </c>
       <c r="K22">
         <v>-0</v>
@@ -4814,7 +4814,7 @@
         <v>-0</v>
       </c>
       <c r="N22">
-        <v>7.681652545928955</v>
+        <v>40.35243606567383</v>
       </c>
       <c r="O22">
         <v>-0</v>
@@ -4826,7 +4826,7 @@
         <v>-0</v>
       </c>
       <c r="R22">
-        <v>7.847552299499513</v>
+        <v>36.70075607299805</v>
       </c>
       <c r="S22">
         <v>-0</v>
@@ -4838,7 +4838,7 @@
         <v>-0</v>
       </c>
       <c r="V22">
-        <v>7.166190624237061</v>
+        <v>36.06289291381836</v>
       </c>
       <c r="W22">
         <v>-0</v>
@@ -4850,52 +4850,52 @@
         <v>-0</v>
       </c>
       <c r="Z22">
-        <v>7.158985614776611</v>
+        <v>34.57302474975586</v>
       </c>
       <c r="AA22">
-        <v>37.74652099609375</v>
+        <v>157.2907867431641</v>
       </c>
       <c r="AB22">
-        <v>37.74652099609375</v>
+        <v>157.2907867431641</v>
       </c>
       <c r="AC22">
-        <v>8418.76953125</v>
+        <v>35578.73046875</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>53.47203063964844</v>
+        <v>77.37824249267578</v>
       </c>
       <c r="AF22">
-        <v>53.47203063964844</v>
+        <v>77.37824249267578</v>
       </c>
       <c r="AG22">
-        <v>12095.0439453125</v>
+        <v>17502.73828125</v>
       </c>
       <c r="AH22">
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>200.0014038085937</v>
+        <v>200</v>
       </c>
       <c r="AJ22">
-        <v>200.0014038085937</v>
+        <v>200</v>
       </c>
       <c r="AK22">
-        <v>48501.05859375</v>
+        <v>45359.65625</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>192.781753540039</v>
+        <v>200</v>
       </c>
       <c r="AN22">
-        <v>192.781753540039</v>
+        <v>200</v>
       </c>
       <c r="AO22">
-        <v>46885.0703125</v>
+        <v>45505.8125</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -4907,31 +4907,31 @@
         <v>200</v>
       </c>
       <c r="AS22">
-        <v>49810.9296875</v>
+        <v>45409.578125</v>
       </c>
       <c r="AT22">
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>159.9976196289062</v>
+        <v>159.9981079101562</v>
       </c>
       <c r="AV22">
         <v>160</v>
       </c>
       <c r="AW22">
-        <v>36178.5546875</v>
+        <v>36191.1171875</v>
       </c>
       <c r="AX22">
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>160.0000305175781</v>
+        <v>160</v>
       </c>
       <c r="AZ22">
-        <v>160.0000305175781</v>
+        <v>160</v>
       </c>
       <c r="BA22">
-        <v>36760.55859375</v>
+        <v>36185.4609375</v>
       </c>
       <c r="BB22">
         <v>0</v>
@@ -4940,7 +4940,7 @@
         <v>-0</v>
       </c>
       <c r="BD22">
-        <v>0.01445124298334122</v>
+        <v>0.01448782999068499</v>
       </c>
       <c r="BE22">
         <v>-0</v>
@@ -4949,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="BG22">
-        <v>8.238715309971667e-08</v>
+        <v>0.0003887408820446581</v>
       </c>
       <c r="BH22">
-        <v>0.02062730304896832</v>
+        <v>0.01959747821092606</v>
       </c>
       <c r="BI22">
-        <v>2.210260703350287e-07</v>
+        <v>0.00104290375020355</v>
       </c>
       <c r="BJ22">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44028.04166666666</v>
+        <v>44022.04166666666</v>
       </c>
       <c r="C23">
         <v>-0</v>
@@ -4990,7 +4990,7 @@
         <v>-0</v>
       </c>
       <c r="F23">
-        <v>7.014747142791747</v>
+        <v>36.30331039428711</v>
       </c>
       <c r="G23">
         <v>-0</v>
@@ -5002,7 +5002,7 @@
         <v>-0</v>
       </c>
       <c r="J23">
-        <v>5.656376838684082</v>
+        <v>31.7735652923584</v>
       </c>
       <c r="K23">
         <v>-0</v>
@@ -5014,7 +5014,7 @@
         <v>-0</v>
       </c>
       <c r="N23">
-        <v>7.542932987213135</v>
+        <v>39.11971282958984</v>
       </c>
       <c r="O23">
         <v>-0</v>
@@ -5026,7 +5026,7 @@
         <v>-0</v>
       </c>
       <c r="R23">
-        <v>7.59125280380249</v>
+        <v>35.18280410766602</v>
       </c>
       <c r="S23">
         <v>-0</v>
@@ -5038,7 +5038,7 @@
         <v>-0</v>
       </c>
       <c r="V23">
-        <v>6.933913230895996</v>
+        <v>35.20306015014648</v>
       </c>
       <c r="W23">
         <v>-0</v>
@@ -5050,88 +5050,88 @@
         <v>-0</v>
       </c>
       <c r="Z23">
-        <v>6.92575216293335</v>
+        <v>33.55502319335937</v>
       </c>
       <c r="AA23">
-        <v>37.21287536621094</v>
+        <v>113.1317825317383</v>
       </c>
       <c r="AB23">
-        <v>37.21287536621094</v>
+        <v>113.1317825317383</v>
       </c>
       <c r="AC23">
-        <v>8294.21484375</v>
+        <v>25590.087890625</v>
       </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>53.33420944213867</v>
+        <v>77.31849670410156</v>
       </c>
       <c r="AF23">
-        <v>53.33420944213867</v>
+        <v>77.31849670410156</v>
       </c>
       <c r="AG23">
-        <v>12063.876953125</v>
+        <v>17489.224609375</v>
       </c>
       <c r="AH23">
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>200.0086212158203</v>
+        <v>200</v>
       </c>
       <c r="AJ23">
-        <v>200.0086212158203</v>
+        <v>200</v>
       </c>
       <c r="AK23">
-        <v>49011.015625</v>
+        <v>45375.8671875</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>189.4280090332031</v>
+        <v>200</v>
       </c>
       <c r="AN23">
-        <v>189.4280090332031</v>
+        <v>200</v>
       </c>
       <c r="AO23">
-        <v>46141.2265625</v>
+        <v>45527.0390625</v>
       </c>
       <c r="AP23">
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>199.9998931884766</v>
+        <v>200</v>
       </c>
       <c r="AR23">
-        <v>199.9998931884766</v>
+        <v>200</v>
       </c>
       <c r="AS23">
-        <v>50464.09765625</v>
+        <v>45427.51953125</v>
       </c>
       <c r="AT23">
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>159.9976043701172</v>
+        <v>159.9980926513672</v>
       </c>
       <c r="AV23">
         <v>160</v>
       </c>
       <c r="AW23">
-        <v>36177.7734375</v>
+        <v>36191.1171875</v>
       </c>
       <c r="AX23">
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>160.0000915527344</v>
+        <v>160</v>
       </c>
       <c r="AZ23">
-        <v>160.0000915527344</v>
+        <v>160</v>
       </c>
       <c r="BA23">
-        <v>36768.73046875</v>
+        <v>36194.69921875</v>
       </c>
       <c r="BB23">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>-0</v>
       </c>
       <c r="BD23">
-        <v>0.01443953905254602</v>
+        <v>0.01448632217943668</v>
       </c>
       <c r="BE23">
         <v>-0</v>
@@ -5149,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="BG23">
-        <v>3.604899712073006e-09</v>
+        <v>4.689779962063767e-05</v>
       </c>
       <c r="BH23">
-        <v>0.0206153355538845</v>
+        <v>0.02051403746008873</v>
       </c>
       <c r="BI23">
-        <v>9.671129674870826e-09</v>
+        <v>0.0001258161646546796</v>
       </c>
       <c r="BJ23">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44037.04166666666</v>
+        <v>44023.04166666666</v>
       </c>
       <c r="C24">
         <v>-0</v>
@@ -5190,7 +5190,7 @@
         <v>-0</v>
       </c>
       <c r="F24">
-        <v>6.498961925506593</v>
+        <v>35.37257385253906</v>
       </c>
       <c r="G24">
         <v>-0</v>
@@ -5202,7 +5202,7 @@
         <v>-0</v>
       </c>
       <c r="J24">
-        <v>5.159403800964356</v>
+        <v>31.0003662109375</v>
       </c>
       <c r="K24">
         <v>-0</v>
@@ -5214,7 +5214,7 @@
         <v>-0</v>
       </c>
       <c r="N24">
-        <v>7.167126178741455</v>
+        <v>37.95287704467773</v>
       </c>
       <c r="O24">
         <v>-0</v>
@@ -5226,7 +5226,7 @@
         <v>-0</v>
       </c>
       <c r="R24">
-        <v>6.921823024749756</v>
+        <v>34.00924301147461</v>
       </c>
       <c r="S24">
         <v>-0</v>
@@ -5238,7 +5238,7 @@
         <v>-0</v>
       </c>
       <c r="V24">
-        <v>6.396603107452393</v>
+        <v>34.37260818481445</v>
       </c>
       <c r="W24">
         <v>-0</v>
@@ -5250,76 +5250,76 @@
         <v>-0</v>
       </c>
       <c r="Z24">
-        <v>6.324888706207275</v>
+        <v>32.71044921875</v>
       </c>
       <c r="AA24">
-        <v>35.40419387817383</v>
+        <v>113.6525650024414</v>
       </c>
       <c r="AB24">
-        <v>35.40419387817383</v>
+        <v>113.6525650024414</v>
       </c>
       <c r="AC24">
-        <v>7938.87451171875</v>
+        <v>25707.88671875</v>
       </c>
       <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>53.03315734863281</v>
+        <v>10</v>
       </c>
       <c r="AF24">
-        <v>53.03315734863281</v>
+        <v>10</v>
       </c>
       <c r="AG24">
-        <v>11995.7998046875</v>
+        <v>2261.9716796875</v>
       </c>
       <c r="AH24">
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>188.722412109375</v>
+        <v>200</v>
       </c>
       <c r="AJ24">
-        <v>188.722412109375</v>
+        <v>200</v>
       </c>
       <c r="AK24">
-        <v>46614.34375</v>
+        <v>45391.69140625</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>179.9970550537109</v>
+        <v>200</v>
       </c>
       <c r="AN24">
-        <v>179.9970550537109</v>
+        <v>200</v>
       </c>
       <c r="AO24">
-        <v>44012.3359375</v>
+        <v>45547.6328125</v>
       </c>
       <c r="AP24">
         <v>0</v>
       </c>
       <c r="AQ24">
-        <v>196.1844635009766</v>
+        <v>200</v>
       </c>
       <c r="AR24">
-        <v>196.1844635009766</v>
+        <v>200</v>
       </c>
       <c r="AS24">
-        <v>50054.94921875</v>
+        <v>45444.921875</v>
       </c>
       <c r="AT24">
         <v>0</v>
       </c>
       <c r="AU24">
-        <v>159.9975738525391</v>
+        <v>159.9980926513672</v>
       </c>
       <c r="AV24">
         <v>160</v>
       </c>
       <c r="AW24">
-        <v>36175.34765625</v>
+        <v>36191.11328125</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>160</v>
       </c>
       <c r="BA24">
-        <v>36791.47265625</v>
+        <v>36203.69140625</v>
       </c>
       <c r="BB24">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>-0</v>
       </c>
       <c r="BD24">
-        <v>0.01440520118921995</v>
+        <v>0.01448255125433207</v>
       </c>
       <c r="BE24">
         <v>-0</v>
@@ -5349,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="BG24">
-        <v>5.41895521510849e-11</v>
+        <v>5.657770088873804e-06</v>
       </c>
       <c r="BH24">
-        <v>0.02057977579534054</v>
+        <v>0.02062054350972176</v>
       </c>
       <c r="BI24">
-        <v>1.453782927374192e-10</v>
+        <v>1.517851524113212e-05</v>
       </c>
       <c r="BJ24">
         <v>0</v>
@@ -5378,7 +5378,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44043</v>
+        <v>44024.04166666666</v>
       </c>
       <c r="C25">
         <v>-0</v>
@@ -5390,7 +5390,7 @@
         <v>-0</v>
       </c>
       <c r="F25">
-        <v>6.288528919219972</v>
+        <v>34.4715576171875</v>
       </c>
       <c r="G25">
         <v>-0</v>
@@ -5402,7 +5402,7 @@
         <v>-0</v>
       </c>
       <c r="J25">
-        <v>4.910367965698242</v>
+        <v>30.25457000732422</v>
       </c>
       <c r="K25">
         <v>-0</v>
@@ -5414,7 +5414,7 @@
         <v>-0</v>
       </c>
       <c r="N25">
-        <v>6.988787651062013</v>
+        <v>36.89752578735352</v>
       </c>
       <c r="O25">
         <v>-0</v>
@@ -5426,7 +5426,7 @@
         <v>-0</v>
       </c>
       <c r="R25">
-        <v>6.514169216156006</v>
+        <v>33.00725555419922</v>
       </c>
       <c r="S25">
         <v>-0</v>
@@ -5438,7 +5438,7 @@
         <v>-0</v>
       </c>
       <c r="V25">
-        <v>6.166189670562744</v>
+        <v>33.56836318969727</v>
       </c>
       <c r="W25">
         <v>-0</v>
@@ -5450,88 +5450,88 @@
         <v>-0</v>
       </c>
       <c r="Z25">
-        <v>5.964385986328125</v>
+        <v>32.00568008422852</v>
       </c>
       <c r="AA25">
-        <v>34.63456726074219</v>
+        <v>113.669563293457</v>
       </c>
       <c r="AB25">
-        <v>34.63456726074219</v>
+        <v>113.669563293457</v>
       </c>
       <c r="AC25">
-        <v>7858.0185546875</v>
+        <v>25711.732421875</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>52.8322868347168</v>
+        <v>61.36589050292969</v>
       </c>
       <c r="AF25">
-        <v>52.8322868347168</v>
+        <v>61.36589050292969</v>
       </c>
       <c r="AG25">
-        <v>11950.3759765625</v>
+        <v>13880.7900390625</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>182.527587890625</v>
+        <v>200</v>
       </c>
       <c r="AJ25">
-        <v>182.527587890625</v>
+        <v>200</v>
       </c>
       <c r="AK25">
-        <v>45240.13671875</v>
+        <v>45407.12890625</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>174.9459838867188</v>
+        <v>200</v>
       </c>
       <c r="AN25">
-        <v>174.9459838867188</v>
+        <v>200</v>
       </c>
       <c r="AO25">
-        <v>42751.0625</v>
+        <v>45567.671875</v>
       </c>
       <c r="AP25">
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>190.7976989746094</v>
+        <v>200</v>
       </c>
       <c r="AR25">
-        <v>190.7976989746094</v>
+        <v>200</v>
       </c>
       <c r="AS25">
-        <v>48440.26953125</v>
+        <v>45461.85546875</v>
       </c>
       <c r="AT25">
         <v>0</v>
       </c>
       <c r="AU25">
-        <v>159.99755859375</v>
+        <v>159.9980926513672</v>
       </c>
       <c r="AV25">
         <v>160</v>
       </c>
       <c r="AW25">
-        <v>36173.69140625</v>
+        <v>36191.11328125</v>
       </c>
       <c r="AX25">
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>160.0001373291016</v>
+        <v>160</v>
       </c>
       <c r="AZ25">
-        <v>160.0001373291016</v>
+        <v>160</v>
       </c>
       <c r="BA25">
-        <v>36805.46875</v>
+        <v>36212.4453125</v>
       </c>
       <c r="BB25">
         <v>0</v>
@@ -5540,7 +5540,7 @@
         <v>-0</v>
       </c>
       <c r="BD25">
-        <v>0.01438280008733273</v>
+        <v>0.01447879057377577</v>
       </c>
       <c r="BE25">
         <v>-0</v>
@@ -5549,13 +5549,13 @@
         <v>0</v>
       </c>
       <c r="BG25">
-        <v>1.223120021064117e-12</v>
+        <v>6.826759886280342e-07</v>
       </c>
       <c r="BH25">
-        <v>0.02055664174258709</v>
+        <v>0.02062978036701679</v>
       </c>
       <c r="BI25">
-        <v>3.281352620176925e-12</v>
+        <v>1.831465056056913e-06</v>
       </c>
       <c r="BJ25">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44057.04166666666</v>
+        <v>44025.04166666666</v>
       </c>
       <c r="C26">
         <v>-0</v>
@@ -5590,7 +5590,7 @@
         <v>-0</v>
       </c>
       <c r="F26">
-        <v>5.869474411010742</v>
+        <v>33.59911346435547</v>
       </c>
       <c r="G26">
         <v>-0</v>
@@ -5602,7 +5602,7 @@
         <v>-0</v>
       </c>
       <c r="J26">
-        <v>4.661497116088867</v>
+        <v>29.53305244445801</v>
       </c>
       <c r="K26">
         <v>-0</v>
@@ -5614,7 +5614,7 @@
         <v>-0</v>
       </c>
       <c r="N26">
-        <v>6.608800888061523</v>
+        <v>35.87498092651367</v>
       </c>
       <c r="O26">
         <v>-0</v>
@@ -5626,7 +5626,7 @@
         <v>-0</v>
       </c>
       <c r="R26">
-        <v>5.771194458007812</v>
+        <v>32.18316650390625</v>
       </c>
       <c r="S26">
         <v>-0</v>
@@ -5638,7 +5638,7 @@
         <v>-0</v>
       </c>
       <c r="V26">
-        <v>5.793169975280763</v>
+        <v>32.78802108764648</v>
       </c>
       <c r="W26">
         <v>-0</v>
@@ -5650,76 +5650,76 @@
         <v>-0</v>
       </c>
       <c r="Z26">
-        <v>5.380997180938722</v>
+        <v>31.32185173034668</v>
       </c>
       <c r="AA26">
-        <v>33.55185317993164</v>
+        <v>113.5404281616211</v>
       </c>
       <c r="AB26">
-        <v>33.55185317993164</v>
+        <v>113.5404281616211</v>
       </c>
       <c r="AC26">
-        <v>7628.22314453125</v>
+        <v>25682.521484375</v>
       </c>
       <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>52.34280776977539</v>
+        <v>61.11077117919922</v>
       </c>
       <c r="AF26">
-        <v>52.34280776977539</v>
+        <v>61.11077117919922</v>
       </c>
       <c r="AG26">
-        <v>11839.6806640625</v>
+        <v>13823.0830078125</v>
       </c>
       <c r="AH26">
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>172.3578033447266</v>
+        <v>200</v>
       </c>
       <c r="AJ26">
-        <v>172.3578033447266</v>
+        <v>200</v>
       </c>
       <c r="AK26">
-        <v>42463.3984375</v>
+        <v>45422.1875</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>165.39404296875</v>
+        <v>200</v>
       </c>
       <c r="AN26">
-        <v>165.39404296875</v>
+        <v>200</v>
       </c>
       <c r="AO26">
-        <v>40220.890625</v>
+        <v>45587.21484375</v>
       </c>
       <c r="AP26">
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>180.5554962158203</v>
+        <v>200</v>
       </c>
       <c r="AR26">
-        <v>180.5554962158203</v>
+        <v>200</v>
       </c>
       <c r="AS26">
-        <v>45337.0859375</v>
+        <v>45478.36328125</v>
       </c>
       <c r="AT26">
         <v>0</v>
       </c>
       <c r="AU26">
-        <v>159.9975128173828</v>
+        <v>159.9980926513672</v>
       </c>
       <c r="AV26">
         <v>160</v>
       </c>
       <c r="AW26">
-        <v>36169.72265625</v>
+        <v>36191.11328125</v>
       </c>
       <c r="AX26">
         <v>0</v>
@@ -5731,7 +5731,7 @@
         <v>160</v>
       </c>
       <c r="BA26">
-        <v>36833.90625</v>
+        <v>36220.96484375</v>
       </c>
       <c r="BB26">
         <v>0</v>
@@ -5740,7 +5740,7 @@
         <v>-0</v>
       </c>
       <c r="BD26">
-        <v>0.0143317524343729</v>
+        <v>0.01447503920644522</v>
       </c>
       <c r="BE26">
         <v>-0</v>
@@ -5749,13 +5749,13 @@
         <v>0</v>
       </c>
       <c r="BG26">
-        <v>1.188292526714281e-14</v>
+        <v>8.238725968112702e-08</v>
       </c>
       <c r="BH26">
-        <v>0.0205043088644743</v>
+        <v>0.02062729559838772</v>
       </c>
       <c r="BI26">
-        <v>3.187692961697554e-14</v>
+        <v>2.210263687629777e-07</v>
       </c>
       <c r="BJ26">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44074</v>
+        <v>44028.04166666666</v>
       </c>
       <c r="C27">
         <v>-0</v>
@@ -5790,7 +5790,7 @@
         <v>-0</v>
       </c>
       <c r="F27">
-        <v>5.453563690185547</v>
+        <v>31.20776557922364</v>
       </c>
       <c r="G27">
         <v>-0</v>
@@ -5802,7 +5802,7 @@
         <v>-0</v>
       </c>
       <c r="J27">
-        <v>4.50584888458252</v>
+        <v>27.60507774353027</v>
       </c>
       <c r="K27">
         <v>-0</v>
@@ -5814,7 +5814,7 @@
         <v>-0</v>
       </c>
       <c r="N27">
-        <v>6.196215629577638</v>
+        <v>33.08280563354492</v>
       </c>
       <c r="O27">
         <v>-0</v>
@@ -5826,7 +5826,7 @@
         <v>-0</v>
       </c>
       <c r="R27">
-        <v>5.203393936157227</v>
+        <v>30.32206916809082</v>
       </c>
       <c r="S27">
         <v>-0</v>
@@ -5838,7 +5838,7 @@
         <v>-0</v>
       </c>
       <c r="V27">
-        <v>5.419384956359863</v>
+        <v>30.63395500183105</v>
       </c>
       <c r="W27">
         <v>-0</v>
@@ -5850,76 +5850,76 @@
         <v>-0</v>
       </c>
       <c r="Z27">
-        <v>5.001978397369385</v>
+        <v>29.43051147460937</v>
       </c>
       <c r="AA27">
-        <v>32.66152191162109</v>
+        <v>112.7744522094727</v>
       </c>
       <c r="AB27">
-        <v>32.66152191162109</v>
+        <v>112.7744522094727</v>
       </c>
       <c r="AC27">
-        <v>7380.216796875</v>
+        <v>25509.26171875</v>
       </c>
       <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>51.74199295043945</v>
+        <v>60.9238395690918</v>
       </c>
       <c r="AF27">
-        <v>51.74199295043945</v>
+        <v>60.9238395690918</v>
       </c>
       <c r="AG27">
-        <v>11703.80078125</v>
+        <v>13780.7998046875</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>162.5882568359375</v>
+        <v>200</v>
       </c>
       <c r="AJ27">
-        <v>162.5882568359375</v>
+        <v>200</v>
       </c>
       <c r="AK27">
-        <v>39610.37890625</v>
+        <v>45464.73046875</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>155.9759979248047</v>
+        <v>200</v>
       </c>
       <c r="AN27">
-        <v>155.9759979248047</v>
+        <v>200</v>
       </c>
       <c r="AO27">
-        <v>37661.58984375</v>
+        <v>45642.578125</v>
       </c>
       <c r="AP27">
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>170.6820068359375</v>
+        <v>200</v>
       </c>
       <c r="AR27">
-        <v>170.6820068359375</v>
+        <v>200</v>
       </c>
       <c r="AS27">
-        <v>42237.48046875</v>
+        <v>45525.16796875</v>
       </c>
       <c r="AT27">
         <v>0</v>
       </c>
       <c r="AU27">
-        <v>159.9974670410156</v>
+        <v>159.9980773925781</v>
       </c>
       <c r="AV27">
         <v>160</v>
       </c>
       <c r="AW27">
-        <v>36164.78515625</v>
+        <v>36191.109375</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>160</v>
       </c>
       <c r="BA27">
-        <v>37079.390625</v>
+        <v>36244.94921875</v>
       </c>
       <c r="BB27">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>-0</v>
       </c>
       <c r="BD27">
-        <v>0.0142724858596921</v>
+        <v>0.01446387358009815</v>
       </c>
       <c r="BE27">
         <v>-0</v>
@@ -5949,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="BG27">
-        <v>9.502439118772367e-17</v>
+        <v>3.604905707277339e-09</v>
       </c>
       <c r="BH27">
-        <v>0.02044409886002541</v>
+        <v>0.02061532996594906</v>
       </c>
       <c r="BI27">
-        <v>2.574899691523084e-16</v>
+        <v>9.671145662082379e-09</v>
       </c>
       <c r="BJ27">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44088.08333333334</v>
+        <v>44037.04166666666</v>
       </c>
       <c r="C28">
         <v>-0</v>
@@ -5990,7 +5990,7 @@
         <v>-0</v>
       </c>
       <c r="F28">
-        <v>5.19985294342041</v>
+        <v>25.86794853210449</v>
       </c>
       <c r="G28">
         <v>-0</v>
@@ -6002,7 +6002,7 @@
         <v>-0</v>
       </c>
       <c r="J28">
-        <v>4.386232852935791</v>
+        <v>23.12516784667969</v>
       </c>
       <c r="K28">
         <v>-0</v>
@@ -6014,7 +6014,7 @@
         <v>-0</v>
       </c>
       <c r="N28">
-        <v>5.917557239532472</v>
+        <v>26.77659225463867</v>
       </c>
       <c r="O28">
         <v>-0</v>
@@ -6026,7 +6026,7 @@
         <v>-0</v>
       </c>
       <c r="R28">
-        <v>4.854398250579834</v>
+        <v>25.74390983581543</v>
       </c>
       <c r="S28">
         <v>-0</v>
@@ -6038,7 +6038,7 @@
         <v>-0</v>
       </c>
       <c r="V28">
-        <v>5.200754165649414</v>
+        <v>25.38973426818848</v>
       </c>
       <c r="W28">
         <v>-0</v>
@@ -6050,76 +6050,76 @@
         <v>-0</v>
       </c>
       <c r="Z28">
-        <v>4.720685482025146</v>
+        <v>24.7612133026123</v>
       </c>
       <c r="AA28">
-        <v>32.05266571044922</v>
+        <v>110.0463638305664</v>
       </c>
       <c r="AB28">
-        <v>32.05266571044922</v>
+        <v>110.0463638305664</v>
       </c>
       <c r="AC28">
-        <v>7199.74853515625</v>
+        <v>24892.17578125</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>51.24089431762695</v>
+        <v>60.54244613647461</v>
       </c>
       <c r="AF28">
-        <v>51.24089431762695</v>
+        <v>60.54244613647461</v>
       </c>
       <c r="AG28">
-        <v>11590.4697265625</v>
+        <v>13694.529296875</v>
       </c>
       <c r="AH28">
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>155.5292053222656</v>
+        <v>200</v>
       </c>
       <c r="AJ28">
-        <v>155.5292053222656</v>
+        <v>200</v>
       </c>
       <c r="AK28">
-        <v>37519.23046875</v>
+        <v>45573.35546875</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>149.1383056640625</v>
+        <v>200</v>
       </c>
       <c r="AN28">
-        <v>149.1383056640625</v>
+        <v>200</v>
       </c>
       <c r="AO28">
-        <v>35786.03515625</v>
+        <v>45783.7578125</v>
       </c>
       <c r="AP28">
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>163.1805572509766</v>
+        <v>200</v>
       </c>
       <c r="AR28">
-        <v>163.1805572509766</v>
+        <v>200</v>
       </c>
       <c r="AS28">
-        <v>40193.73046875</v>
+        <v>45645.14453125</v>
       </c>
       <c r="AT28">
         <v>0</v>
       </c>
       <c r="AU28">
-        <v>159.9974212646484</v>
+        <v>159.998046875</v>
       </c>
       <c r="AV28">
         <v>160</v>
       </c>
       <c r="AW28">
-        <v>36160.6640625</v>
+        <v>36191.10546875</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>160</v>
       </c>
       <c r="BA28">
-        <v>37428.5234375</v>
+        <v>36305.3203125</v>
       </c>
       <c r="BB28">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>-0</v>
       </c>
       <c r="BD28">
-        <v>0.014224823564291</v>
+        <v>0.01443113666027784</v>
       </c>
       <c r="BE28">
         <v>-0</v>
@@ -6149,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="BG28">
-        <v>-0</v>
+        <v>5.41896527650465e-11</v>
       </c>
       <c r="BH28">
-        <v>0.02039605565369129</v>
+        <v>0.02057977207005024</v>
       </c>
       <c r="BI28">
-        <v>2.507675988727236e-18</v>
+        <v>1.453785564153876e-10</v>
       </c>
       <c r="BJ28">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44104</v>
+        <v>44043</v>
       </c>
       <c r="C29">
         <v>-0</v>
@@ -6190,7 +6190,7 @@
         <v>-0</v>
       </c>
       <c r="F29">
-        <v>4.936164855957031</v>
+        <v>22.86551284790039</v>
       </c>
       <c r="G29">
         <v>-0</v>
@@ -6202,7 +6202,7 @@
         <v>-0</v>
       </c>
       <c r="J29">
-        <v>4.254895210266113</v>
+        <v>20.52542304992676</v>
       </c>
       <c r="K29">
         <v>-0</v>
@@ -6214,7 +6214,7 @@
         <v>-0</v>
       </c>
       <c r="N29">
-        <v>5.712461948394775</v>
+        <v>23.41157722473145</v>
       </c>
       <c r="O29">
         <v>-0</v>
@@ -6226,7 +6226,7 @@
         <v>-0</v>
       </c>
       <c r="R29">
-        <v>4.527942180633545</v>
+        <v>23.00963592529297</v>
       </c>
       <c r="S29">
         <v>-0</v>
@@ -6238,7 +6238,7 @@
         <v>-0</v>
       </c>
       <c r="V29">
-        <v>4.973787307739258</v>
+        <v>22.55912971496582</v>
       </c>
       <c r="W29">
         <v>-0</v>
@@ -6250,76 +6250,76 @@
         <v>-0</v>
       </c>
       <c r="Z29">
-        <v>4.479015350341797</v>
+        <v>22.15547752380371</v>
       </c>
       <c r="AA29">
-        <v>31.41090583801269</v>
+        <v>108.3065948486328</v>
       </c>
       <c r="AB29">
-        <v>31.41090583801269</v>
+        <v>108.3065948486328</v>
       </c>
       <c r="AC29">
-        <v>7014.14697265625</v>
+        <v>24498.64453125</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>50.6769027709961</v>
+        <v>60.29885482788086</v>
       </c>
       <c r="AF29">
-        <v>50.6769027709961</v>
+        <v>60.29885482788086</v>
       </c>
       <c r="AG29">
-        <v>11462.91015625</v>
+        <v>13639.4296875</v>
       </c>
       <c r="AH29">
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>148.2889862060547</v>
+        <v>200</v>
       </c>
       <c r="AJ29">
-        <v>148.2889862060547</v>
+        <v>200</v>
       </c>
       <c r="AK29">
-        <v>35405.8203125</v>
+        <v>45636.07421875</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>142.1691436767578</v>
+        <v>200</v>
       </c>
       <c r="AN29">
-        <v>142.1691436767578</v>
+        <v>200</v>
       </c>
       <c r="AO29">
-        <v>33889.0078125</v>
+        <v>45865.1484375</v>
       </c>
       <c r="AP29">
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>155.7391967773438</v>
+        <v>200</v>
       </c>
       <c r="AR29">
-        <v>155.7391967773438</v>
+        <v>200</v>
       </c>
       <c r="AS29">
-        <v>38109.83203125</v>
+        <v>45714.4765625</v>
       </c>
       <c r="AT29">
         <v>0</v>
       </c>
       <c r="AU29">
-        <v>159.9973754882812</v>
+        <v>159.9980316162109</v>
       </c>
       <c r="AV29">
         <v>160</v>
       </c>
       <c r="AW29">
-        <v>36156.078125</v>
+        <v>36191.1015625</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>160</v>
       </c>
       <c r="BA29">
-        <v>37730.52734375</v>
+        <v>36339.66015625</v>
       </c>
       <c r="BB29">
         <v>0</v>
@@ -6340,7 +6340,7 @@
         <v>-0</v>
       </c>
       <c r="BD29">
-        <v>0.01417282782495022</v>
+        <v>0.01440979260951281</v>
       </c>
       <c r="BE29">
         <v>-0</v>
@@ -6349,25 +6349,25 @@
         <v>0</v>
       </c>
       <c r="BG29">
-        <v>-0</v>
+        <v>1.223122081048245e-12</v>
       </c>
       <c r="BH29">
-        <v>0.02034412138164044</v>
+        <v>0.02055663987994194</v>
       </c>
       <c r="BI29">
-        <v>2.168386444265565e-20</v>
+        <v>3.28135912538996e-12</v>
       </c>
       <c r="BJ29">
         <v>0</v>
       </c>
       <c r="BK29">
-        <v>0.00172611465677619</v>
+        <v>-0</v>
       </c>
       <c r="BL29">
-        <v>0.02603567950427532</v>
+        <v>-0</v>
       </c>
       <c r="BM29">
-        <v>0.0010282879229635</v>
+        <v>-0</v>
       </c>
       <c r="BN29">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44135</v>
+        <v>44057.04166666666</v>
       </c>
       <c r="C30">
         <v>-0</v>
@@ -6390,7 +6390,7 @@
         <v>-0</v>
       </c>
       <c r="F30">
-        <v>4.519871711730957</v>
+        <v>17.82733726501465</v>
       </c>
       <c r="G30">
         <v>-0</v>
@@ -6402,7 +6402,7 @@
         <v>-0</v>
       </c>
       <c r="J30">
-        <v>4.015115737915038</v>
+        <v>16.36287498474121</v>
       </c>
       <c r="K30">
         <v>-0</v>
@@ -6414,7 +6414,7 @@
         <v>-0</v>
       </c>
       <c r="N30">
-        <v>5.417235851287842</v>
+        <v>17.80124855041504</v>
       </c>
       <c r="O30">
         <v>-0</v>
@@ -6426,7 +6426,7 @@
         <v>-0</v>
       </c>
       <c r="R30">
-        <v>4.265950679779054</v>
+        <v>18.09389495849609</v>
       </c>
       <c r="S30">
         <v>-0</v>
@@ -6438,7 +6438,7 @@
         <v>-0</v>
       </c>
       <c r="V30">
-        <v>4.580560207366943</v>
+        <v>17.92010688781739</v>
       </c>
       <c r="W30">
         <v>-0</v>
@@ -6450,88 +6450,88 @@
         <v>-0</v>
       </c>
       <c r="Z30">
-        <v>4.118632316589356</v>
+        <v>17.67620277404785</v>
       </c>
       <c r="AA30">
-        <v>30.23062896728516</v>
+        <v>94.66848754882812</v>
       </c>
       <c r="AB30">
-        <v>30.23062896728516</v>
+        <v>94.66848754882812</v>
       </c>
       <c r="AC30">
-        <v>6702.02294921875</v>
+        <v>21409.783203125</v>
       </c>
       <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>49.60153198242188</v>
+        <v>59.72810363769531</v>
       </c>
       <c r="AF30">
-        <v>49.60153198242188</v>
+        <v>59.72810363769531</v>
       </c>
       <c r="AG30">
-        <v>11219.68359375</v>
+        <v>13510.3271484375</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>135.6587219238281</v>
+        <v>200</v>
       </c>
       <c r="AJ30">
-        <v>135.6587219238281</v>
+        <v>200</v>
       </c>
       <c r="AK30">
-        <v>32129.96484375</v>
+        <v>45751.4765625</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>129.9918823242188</v>
+        <v>200</v>
       </c>
       <c r="AN30">
-        <v>129.9918823242188</v>
+        <v>200</v>
       </c>
       <c r="AO30">
-        <v>30831.611328125</v>
+        <v>46048.4140625</v>
       </c>
       <c r="AP30">
         <v>0</v>
       </c>
       <c r="AQ30">
-        <v>143.9812316894531</v>
+        <v>200</v>
       </c>
       <c r="AR30">
-        <v>143.9812316894531</v>
+        <v>200</v>
       </c>
       <c r="AS30">
-        <v>34762.75</v>
+        <v>45840.60546875</v>
       </c>
       <c r="AT30">
         <v>0</v>
       </c>
       <c r="AU30">
-        <v>159.9972991943359</v>
+        <v>159.9980010986328</v>
       </c>
       <c r="AV30">
         <v>160</v>
       </c>
       <c r="AW30">
-        <v>36165.84375</v>
+        <v>36191.09375</v>
       </c>
       <c r="AX30">
         <v>0</v>
       </c>
       <c r="AY30">
-        <v>159.9999694824219</v>
+        <v>160</v>
       </c>
       <c r="AZ30">
-        <v>159.9999694824219</v>
+        <v>160</v>
       </c>
       <c r="BA30">
-        <v>38106.66015625</v>
+        <v>36404.51953125</v>
       </c>
       <c r="BB30">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>-0</v>
       </c>
       <c r="BD30">
-        <v>0.01407791301608086</v>
+        <v>0.01436121389269829</v>
       </c>
       <c r="BE30">
         <v>-0</v>
@@ -6549,25 +6549,25 @@
         <v>0</v>
       </c>
       <c r="BG30">
-        <v>-0</v>
+        <v>1.188292442010986e-14</v>
       </c>
       <c r="BH30">
-        <v>0.02025101147592068</v>
+        <v>0.0205043088644743</v>
       </c>
       <c r="BI30">
-        <v>9.692290287077476e-23</v>
+        <v>3.187699399147953e-14</v>
       </c>
       <c r="BJ30">
         <v>0</v>
       </c>
       <c r="BK30">
-        <v>5.805106866318965e-06</v>
+        <v>-0</v>
       </c>
       <c r="BL30">
-        <v>0.0255261529237032</v>
+        <v>-0</v>
       </c>
       <c r="BM30">
-        <v>3.458241735643242e-06</v>
+        <v>-0</v>
       </c>
       <c r="BN30">
         <v>0</v>
@@ -6578,198 +6578,998 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
+        <v>44074</v>
+      </c>
+      <c r="C31">
+        <v>-0</v>
+      </c>
+      <c r="D31">
+        <v>-0</v>
+      </c>
+      <c r="E31">
+        <v>-0</v>
+      </c>
+      <c r="F31">
+        <v>13.71600437164306</v>
+      </c>
+      <c r="G31">
+        <v>-0</v>
+      </c>
+      <c r="H31">
+        <v>-0</v>
+      </c>
+      <c r="I31">
+        <v>-0</v>
+      </c>
+      <c r="J31">
+        <v>12.73230171203613</v>
+      </c>
+      <c r="K31">
+        <v>-0</v>
+      </c>
+      <c r="L31">
+        <v>-0</v>
+      </c>
+      <c r="M31">
+        <v>-0</v>
+      </c>
+      <c r="N31">
+        <v>14.00620651245117</v>
+      </c>
+      <c r="O31">
+        <v>-0</v>
+      </c>
+      <c r="P31">
+        <v>-0</v>
+      </c>
+      <c r="Q31">
+        <v>-0</v>
+      </c>
+      <c r="R31">
+        <v>14.65768718719482</v>
+      </c>
+      <c r="S31">
+        <v>-0</v>
+      </c>
+      <c r="T31">
+        <v>-0</v>
+      </c>
+      <c r="U31">
+        <v>-0</v>
+      </c>
+      <c r="V31">
+        <v>13.79601192474365</v>
+      </c>
+      <c r="W31">
+        <v>-0</v>
+      </c>
+      <c r="X31">
+        <v>-0</v>
+      </c>
+      <c r="Y31">
+        <v>-0</v>
+      </c>
+      <c r="Z31">
+        <v>13.80373954772949</v>
+      </c>
+      <c r="AA31">
+        <v>74.00224304199219</v>
+      </c>
+      <c r="AB31">
+        <v>74.00224304199219</v>
+      </c>
+      <c r="AC31">
+        <v>16726.626953125</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>59.04126739501953</v>
+      </c>
+      <c r="AF31">
+        <v>59.04126739501953</v>
+      </c>
+      <c r="AG31">
+        <v>13354.966796875</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>200</v>
+      </c>
+      <c r="AJ31">
+        <v>200</v>
+      </c>
+      <c r="AK31">
+        <v>45888.58203125</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>200</v>
+      </c>
+      <c r="AN31">
+        <v>200</v>
+      </c>
+      <c r="AO31">
+        <v>46296.2265625</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>200</v>
+      </c>
+      <c r="AR31">
+        <v>200</v>
+      </c>
+      <c r="AS31">
+        <v>46027.80078125</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>159.9979400634766</v>
+      </c>
+      <c r="AV31">
+        <v>160</v>
+      </c>
+      <c r="AW31">
+        <v>36191.08203125</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>160</v>
+      </c>
+      <c r="AZ31">
+        <v>160</v>
+      </c>
+      <c r="BA31">
+        <v>36465.34375</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>-0</v>
+      </c>
+      <c r="BD31">
+        <v>0.01430484745651484</v>
+      </c>
+      <c r="BE31">
+        <v>-0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>9.502437795283387e-17</v>
+      </c>
+      <c r="BH31">
+        <v>0.02044409699738026</v>
+      </c>
+      <c r="BI31">
+        <v>2.5749052501768e-16</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>-0</v>
+      </c>
+      <c r="BL31">
+        <v>-0</v>
+      </c>
+      <c r="BM31">
+        <v>-0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:66">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44088.08333333334</v>
+      </c>
+      <c r="C32">
+        <v>-0</v>
+      </c>
+      <c r="D32">
+        <v>-0</v>
+      </c>
+      <c r="E32">
+        <v>-0</v>
+      </c>
+      <c r="F32">
+        <v>11.5090913772583</v>
+      </c>
+      <c r="G32">
+        <v>-0</v>
+      </c>
+      <c r="H32">
+        <v>-0</v>
+      </c>
+      <c r="I32">
+        <v>-0</v>
+      </c>
+      <c r="J32">
+        <v>10.44768524169922</v>
+      </c>
+      <c r="K32">
+        <v>-0</v>
+      </c>
+      <c r="L32">
+        <v>-0</v>
+      </c>
+      <c r="M32">
+        <v>-0</v>
+      </c>
+      <c r="N32">
+        <v>11.62377071380615</v>
+      </c>
+      <c r="O32">
+        <v>-0</v>
+      </c>
+      <c r="P32">
+        <v>-0</v>
+      </c>
+      <c r="Q32">
+        <v>-0</v>
+      </c>
+      <c r="R32">
+        <v>12.53527164459229</v>
+      </c>
+      <c r="S32">
+        <v>-0</v>
+      </c>
+      <c r="T32">
+        <v>-0</v>
+      </c>
+      <c r="U32">
+        <v>-0</v>
+      </c>
+      <c r="V32">
+        <v>11.17586708068848</v>
+      </c>
+      <c r="W32">
+        <v>-0</v>
+      </c>
+      <c r="X32">
+        <v>-0</v>
+      </c>
+      <c r="Y32">
+        <v>-0</v>
+      </c>
+      <c r="Z32">
+        <v>11.22674369812012</v>
+      </c>
+      <c r="AA32">
+        <v>63.17220306396485</v>
+      </c>
+      <c r="AB32">
+        <v>63.17220306396485</v>
+      </c>
+      <c r="AC32">
+        <v>14269.2265625</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>58.47596740722656</v>
+      </c>
+      <c r="AF32">
+        <v>58.47596740722656</v>
+      </c>
+      <c r="AG32">
+        <v>13227.09765625</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>199.9999847412109</v>
+      </c>
+      <c r="AJ32">
+        <v>199.9999847412109</v>
+      </c>
+      <c r="AK32">
+        <v>46020.18359375</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>200.0008850097656</v>
+      </c>
+      <c r="AN32">
+        <v>200.0008850097656</v>
+      </c>
+      <c r="AO32">
+        <v>46811.33984375</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>200.0048522949219</v>
+      </c>
+      <c r="AR32">
+        <v>200.0048522949219</v>
+      </c>
+      <c r="AS32">
+        <v>46477.4609375</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>159.9978942871094</v>
+      </c>
+      <c r="AV32">
+        <v>160</v>
+      </c>
+      <c r="AW32">
+        <v>36191.046875</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>160</v>
+      </c>
+      <c r="AZ32">
+        <v>160</v>
+      </c>
+      <c r="BA32">
+        <v>36507.4296875</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>-0</v>
+      </c>
+      <c r="BD32">
+        <v>0.01425954699516296</v>
+      </c>
+      <c r="BE32">
+        <v>-0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>-0</v>
+      </c>
+      <c r="BH32">
+        <v>0.02039605565369129</v>
+      </c>
+      <c r="BI32">
+        <v>2.507681365401218e-18</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>-0</v>
+      </c>
+      <c r="BL32">
+        <v>-0</v>
+      </c>
+      <c r="BM32">
+        <v>-0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:66">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44104</v>
+      </c>
+      <c r="C33">
+        <v>-0</v>
+      </c>
+      <c r="D33">
+        <v>-0</v>
+      </c>
+      <c r="E33">
+        <v>-0</v>
+      </c>
+      <c r="F33">
+        <v>9.595342636108398</v>
+      </c>
+      <c r="G33">
+        <v>-0</v>
+      </c>
+      <c r="H33">
+        <v>-0</v>
+      </c>
+      <c r="I33">
+        <v>-0</v>
+      </c>
+      <c r="J33">
+        <v>8.439897537231445</v>
+      </c>
+      <c r="K33">
+        <v>-0</v>
+      </c>
+      <c r="L33">
+        <v>-0</v>
+      </c>
+      <c r="M33">
+        <v>-0</v>
+      </c>
+      <c r="N33">
+        <v>9.669013977050779</v>
+      </c>
+      <c r="O33">
+        <v>-0</v>
+      </c>
+      <c r="P33">
+        <v>-0</v>
+      </c>
+      <c r="Q33">
+        <v>-0</v>
+      </c>
+      <c r="R33">
+        <v>10.58989906311035</v>
+      </c>
+      <c r="S33">
+        <v>-0</v>
+      </c>
+      <c r="T33">
+        <v>-0</v>
+      </c>
+      <c r="U33">
+        <v>-0</v>
+      </c>
+      <c r="V33">
+        <v>9.376742362976074</v>
+      </c>
+      <c r="W33">
+        <v>-0</v>
+      </c>
+      <c r="X33">
+        <v>-0</v>
+      </c>
+      <c r="Y33">
+        <v>-0</v>
+      </c>
+      <c r="Z33">
+        <v>9.469285011291504</v>
+      </c>
+      <c r="AA33">
+        <v>55.34966659545898</v>
+      </c>
+      <c r="AB33">
+        <v>55.34966659545898</v>
+      </c>
+      <c r="AC33">
+        <v>12490.1806640625</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>57.84186935424805</v>
+      </c>
+      <c r="AF33">
+        <v>57.84186935424805</v>
+      </c>
+      <c r="AG33">
+        <v>13083.6669921875</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>200</v>
+      </c>
+      <c r="AJ33">
+        <v>200</v>
+      </c>
+      <c r="AK33">
+        <v>46402.42578125</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>200</v>
+      </c>
+      <c r="AN33">
+        <v>200</v>
+      </c>
+      <c r="AO33">
+        <v>47326.95703125</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>200</v>
+      </c>
+      <c r="AR33">
+        <v>200</v>
+      </c>
+      <c r="AS33">
+        <v>46940.73046875</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>159.9978485107422</v>
+      </c>
+      <c r="AV33">
+        <v>160</v>
+      </c>
+      <c r="AW33">
+        <v>36190.64453125</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>160</v>
+      </c>
+      <c r="AZ33">
+        <v>160</v>
+      </c>
+      <c r="BA33">
+        <v>36563.79296875</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>-0</v>
+      </c>
+      <c r="BD33">
+        <v>0.01421017851680517</v>
+      </c>
+      <c r="BE33">
+        <v>-0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>-0</v>
+      </c>
+      <c r="BH33">
+        <v>0.02034411951899529</v>
+      </c>
+      <c r="BI33">
+        <v>2.168391129468254e-20</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>3.146011067656218e-06</v>
+      </c>
+      <c r="BL33">
+        <v>0.02605015784502029</v>
+      </c>
+      <c r="BM33">
+        <v>0.0001739451545290649</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:66">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44135</v>
+      </c>
+      <c r="C34">
+        <v>-0</v>
+      </c>
+      <c r="D34">
+        <v>-0</v>
+      </c>
+      <c r="E34">
+        <v>-0</v>
+      </c>
+      <c r="F34">
+        <v>7.265851020812987</v>
+      </c>
+      <c r="G34">
+        <v>-0</v>
+      </c>
+      <c r="H34">
+        <v>-0</v>
+      </c>
+      <c r="I34">
+        <v>-0</v>
+      </c>
+      <c r="J34">
+        <v>5.92884349822998</v>
+      </c>
+      <c r="K34">
+        <v>-0</v>
+      </c>
+      <c r="L34">
+        <v>-0</v>
+      </c>
+      <c r="M34">
+        <v>-0</v>
+      </c>
+      <c r="N34">
+        <v>7.85194206237793</v>
+      </c>
+      <c r="O34">
+        <v>-0</v>
+      </c>
+      <c r="P34">
+        <v>-0</v>
+      </c>
+      <c r="Q34">
+        <v>-0</v>
+      </c>
+      <c r="R34">
+        <v>8.004386901855469</v>
+      </c>
+      <c r="S34">
+        <v>-0</v>
+      </c>
+      <c r="T34">
+        <v>-0</v>
+      </c>
+      <c r="U34">
+        <v>-0</v>
+      </c>
+      <c r="V34">
+        <v>7.138845443725586</v>
+      </c>
+      <c r="W34">
+        <v>-0</v>
+      </c>
+      <c r="X34">
+        <v>-0</v>
+      </c>
+      <c r="Y34">
+        <v>-0</v>
+      </c>
+      <c r="Z34">
+        <v>7.183317184448242</v>
+      </c>
+      <c r="AA34">
+        <v>46.39177703857422</v>
+      </c>
+      <c r="AB34">
+        <v>46.39177703857422</v>
+      </c>
+      <c r="AC34">
+        <v>10441.6171875</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>56.62425231933594</v>
+      </c>
+      <c r="AF34">
+        <v>56.62425231933594</v>
+      </c>
+      <c r="AG34">
+        <v>12808.2451171875</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>200</v>
+      </c>
+      <c r="AJ34">
+        <v>200</v>
+      </c>
+      <c r="AK34">
+        <v>47063.3046875</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>200</v>
+      </c>
+      <c r="AN34">
+        <v>200</v>
+      </c>
+      <c r="AO34">
+        <v>47906.6640625</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>199.9999847412109</v>
+      </c>
+      <c r="AR34">
+        <v>199.9999847412109</v>
+      </c>
+      <c r="AS34">
+        <v>47457.828125</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>159.9977416992188</v>
+      </c>
+      <c r="AV34">
+        <v>160</v>
+      </c>
+      <c r="AW34">
+        <v>36187.52734375</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>160</v>
+      </c>
+      <c r="AZ34">
+        <v>160</v>
+      </c>
+      <c r="BA34">
+        <v>36682.90234375</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>-0</v>
+      </c>
+      <c r="BD34">
+        <v>0.01412032451480627</v>
+      </c>
+      <c r="BE34">
+        <v>-0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>-0</v>
+      </c>
+      <c r="BH34">
+        <v>0.02025101147592068</v>
+      </c>
+      <c r="BI34">
+        <v>9.692311744094099e-23</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>1.091932144703378e-08</v>
+      </c>
+      <c r="BL34">
+        <v>0.02559487335383892</v>
+      </c>
+      <c r="BM34">
+        <v>6.037369075784227e-07</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:66">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
         <v>44165</v>
       </c>
-      <c r="C31">
-        <v>-0</v>
-      </c>
-      <c r="D31">
-        <v>-0</v>
-      </c>
-      <c r="E31">
-        <v>-0</v>
-      </c>
-      <c r="F31">
-        <v>4.29520845413208</v>
-      </c>
-      <c r="G31">
-        <v>-0</v>
-      </c>
-      <c r="H31">
-        <v>-0</v>
-      </c>
-      <c r="I31">
-        <v>-0</v>
-      </c>
-      <c r="J31">
-        <v>3.795912742614746</v>
-      </c>
-      <c r="K31">
-        <v>-0</v>
-      </c>
-      <c r="L31">
-        <v>-0</v>
-      </c>
-      <c r="M31">
-        <v>-0</v>
-      </c>
-      <c r="N31">
-        <v>5.144184589385986</v>
-      </c>
-      <c r="O31">
-        <v>-0</v>
-      </c>
-      <c r="P31">
-        <v>-0</v>
-      </c>
-      <c r="Q31">
-        <v>-0</v>
-      </c>
-      <c r="R31">
-        <v>4.082227706909181</v>
-      </c>
-      <c r="S31">
-        <v>-0</v>
-      </c>
-      <c r="T31">
-        <v>-0</v>
-      </c>
-      <c r="U31">
-        <v>-0</v>
-      </c>
-      <c r="V31">
-        <v>4.241827011108398</v>
-      </c>
-      <c r="W31">
-        <v>-0</v>
-      </c>
-      <c r="X31">
-        <v>-0</v>
-      </c>
-      <c r="Y31">
-        <v>-0</v>
-      </c>
-      <c r="Z31">
-        <v>3.80895733833313</v>
-      </c>
-      <c r="AA31">
-        <v>28.98456382751465</v>
-      </c>
-      <c r="AB31">
-        <v>28.98456382751465</v>
-      </c>
-      <c r="AC31">
-        <v>6515.404296875</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>48.57472610473633</v>
-      </c>
-      <c r="AF31">
-        <v>48.57472610473633</v>
-      </c>
-      <c r="AG31">
-        <v>10987.435546875</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>125.4549331665039</v>
-      </c>
-      <c r="AJ31">
-        <v>125.4549331665039</v>
-      </c>
-      <c r="AK31">
-        <v>29647.93359375</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>119.6627883911133</v>
-      </c>
-      <c r="AN31">
-        <v>119.6627883911133</v>
-      </c>
-      <c r="AO31">
-        <v>28365.431640625</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>135.5832977294922</v>
-      </c>
-      <c r="AR31">
-        <v>135.5832977294922</v>
-      </c>
-      <c r="AS31">
-        <v>32534.677734375</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>159.9972229003906</v>
-      </c>
-      <c r="AV31">
-        <v>160</v>
-      </c>
-      <c r="AW31">
-        <v>36223.0859375</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>136.7948913574219</v>
-      </c>
-      <c r="AZ31">
-        <v>136.7948913574219</v>
-      </c>
-      <c r="BA31">
-        <v>32630.970703125</v>
-      </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>-0</v>
-      </c>
-      <c r="BD31">
-        <v>0.01399138756096363</v>
-      </c>
-      <c r="BE31">
-        <v>-0</v>
-      </c>
-      <c r="BF31">
-        <v>0</v>
-      </c>
-      <c r="BG31">
-        <v>-0</v>
-      </c>
-      <c r="BH31">
+      <c r="C35">
+        <v>-0</v>
+      </c>
+      <c r="D35">
+        <v>-0</v>
+      </c>
+      <c r="E35">
+        <v>-0</v>
+      </c>
+      <c r="F35">
+        <v>6.131143093109131</v>
+      </c>
+      <c r="G35">
+        <v>-0</v>
+      </c>
+      <c r="H35">
+        <v>-0</v>
+      </c>
+      <c r="I35">
+        <v>-0</v>
+      </c>
+      <c r="J35">
+        <v>4.75043249130249</v>
+      </c>
+      <c r="K35">
+        <v>-0</v>
+      </c>
+      <c r="L35">
+        <v>-0</v>
+      </c>
+      <c r="M35">
+        <v>-0</v>
+      </c>
+      <c r="N35">
+        <v>6.948556900024414</v>
+      </c>
+      <c r="O35">
+        <v>-0</v>
+      </c>
+      <c r="P35">
+        <v>-0</v>
+      </c>
+      <c r="Q35">
+        <v>-0</v>
+      </c>
+      <c r="R35">
+        <v>6.25780725479126</v>
+      </c>
+      <c r="S35">
+        <v>-0</v>
+      </c>
+      <c r="T35">
+        <v>-0</v>
+      </c>
+      <c r="U35">
+        <v>-0</v>
+      </c>
+      <c r="V35">
+        <v>6.019805431365968</v>
+      </c>
+      <c r="W35">
+        <v>-0</v>
+      </c>
+      <c r="X35">
+        <v>-0</v>
+      </c>
+      <c r="Y35">
+        <v>-0</v>
+      </c>
+      <c r="Z35">
+        <v>5.704196929931642</v>
+      </c>
+      <c r="AA35">
+        <v>40.03860473632813</v>
+      </c>
+      <c r="AB35">
+        <v>40.03860473632813</v>
+      </c>
+      <c r="AC35">
+        <v>8965.244140625</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>55.46866989135742</v>
+      </c>
+      <c r="AF35">
+        <v>55.46866989135742</v>
+      </c>
+      <c r="AG35">
+        <v>12546.85546875</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>200</v>
+      </c>
+      <c r="AJ35">
+        <v>200</v>
+      </c>
+      <c r="AK35">
+        <v>47810.609375</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>200</v>
+      </c>
+      <c r="AN35">
+        <v>200</v>
+      </c>
+      <c r="AO35">
+        <v>48594.41796875</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>200</v>
+      </c>
+      <c r="AR35">
+        <v>200</v>
+      </c>
+      <c r="AS35">
+        <v>48226.66796875</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>159.9976501464844</v>
+      </c>
+      <c r="AV35">
+        <v>160</v>
+      </c>
+      <c r="AW35">
+        <v>36181.34765625</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>160</v>
+      </c>
+      <c r="AZ35">
+        <v>160</v>
+      </c>
+      <c r="BA35">
+        <v>36768.8828125</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>-0</v>
+      </c>
+      <c r="BD35">
+        <v>0.01403873227536678</v>
+      </c>
+      <c r="BE35">
+        <v>-0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>-0</v>
+      </c>
+      <c r="BH35">
         <v>0.02016769722104073</v>
       </c>
-      <c r="BI31">
-        <v>4.496508638873965e-25</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
-      </c>
-      <c r="BK31">
-        <v>2.138342836133233e-08</v>
-      </c>
-      <c r="BL31">
-        <v>0.02537703886628151</v>
-      </c>
-      <c r="BM31">
-        <v>1.273862171302653e-08</v>
-      </c>
-      <c r="BN31">
+      <c r="BI35">
+        <v>4.496518499635279e-25</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>4.011886309274182e-11</v>
+      </c>
+      <c r="BL35">
+        <v>0.02545472234487534</v>
+      </c>
+      <c r="BM35">
+        <v>2.218200068071496e-09</v>
+      </c>
+      <c r="BN35">
         <v>0</v>
       </c>
     </row>
